--- a/datasets/distiller_casecontrol.xlsx
+++ b/datasets/distiller_casecontrol.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://michiganstate-my.sharepoint.com/personal/fonsec16_msu_edu/Documents/Documents/CAFO_New_Form_V2/datasets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://michiganstate-my.sharepoint.com/personal/fonsec16_msu_edu/Documents/Documents/CAFO-July-2021/Update-Website-July-2021/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{12CF71C5-81DE-4A77-BD9A-39C075EC6064}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7B377F0F-BEB8-44A5-A811-10DD026730F1}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{179BC9EF-1F4A-4B02-8DBB-233F165CA5B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{5164FACF-BFED-4620-8AA9-E40F57671019}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AI$19</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="193">
   <si>
     <t>Refid</t>
   </si>
@@ -127,7 +130,7 @@
     <t>overall_bias</t>
   </si>
   <si>
-    <t>12</t>
+    <t>1</t>
   </si>
   <si>
     <t>BAMFonseca</t>
@@ -136,172 +139,469 @@
     <t>OR</t>
   </si>
   <si>
-    <t>Wheezing within the past year</t>
-  </si>
-  <si>
-    <t>Upper Respiratory</t>
-  </si>
-  <si>
-    <t>PM10</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>0.1</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>1.1</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>0.8</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>2.1</t>
-  </si>
-  <si>
-    <t>2.3</t>
-  </si>
-  <si>
-    <t>1.8</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>0.4</t>
+    <t>Livestock-associated MRSA</t>
+  </si>
+  <si>
+    <t>Antimicrobial resistance</t>
+  </si>
+  <si>
+    <t>Pig density in municipal area of patient residence</t>
+  </si>
+  <si>
+    <t>Probably yes</t>
+  </si>
+  <si>
+    <t>Exposure from CBC StatLine for 2005. However, "Cases and controls may have changed addresses after being diagnosed but before exposure assessment was done."</t>
+  </si>
+  <si>
+    <t>Surveillance for the outcome was not related to the exposure.  However, "were a mixture of clinical disease isolates and screening (nose, throat, and perineum) isolates that were unevenly distributed between the groups"</t>
+  </si>
+  <si>
+    <t>cases and control were obtained from a national surveillance program.  Cases selected from a laboratory.  "They did not study nasal carriage of methicillin-resistant Staphylococcus aureus (MRSA), but they retrospectively analyzed 87 culture-confirmed MRSA cases reported to a reference laboratory. These were a mixture of clinical disease isolates and screening (nose, throat, and perineum) isolates that were unevenly distributed between the groups". Similarly, "Cases and controls may have changed addresses after being diagnosed but before exposure assessment was done."</t>
+  </si>
+  <si>
+    <t>Controls selected from the same laboratory as positives.  "They did not study nasal carriage of methicillin-resistant Staphylococcus aureus (MRSA), but they retrospectively analyzed 87 culture-confirmed MRSA cases reported to a reference laboratory. These were a mixture of clinical disease isolates and screening (nose, throat, and perineum) isolates that were unevenly distributed between the groups"</t>
+  </si>
+  <si>
+    <t>Logistic regression adjusted for contact with livestock, rural residence, probable source of MRSA</t>
+  </si>
+  <si>
+    <t>Unclear risk of bias for one or more key domains.</t>
+  </si>
+  <si>
+    <t>Cow density in municipal area of patient residence</t>
+  </si>
+  <si>
+    <t>Veal calf density in the municipality of the patient's residence</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Nasal MRSA</t>
+  </si>
+  <si>
+    <t>Ever smell odor from a farm with animals when at home</t>
   </si>
   <si>
     <t>Definitely no (high risk of bias)</t>
   </si>
   <si>
-    <t>NONE 1</t>
-  </si>
-  <si>
-    <t>NONE 2</t>
-  </si>
-  <si>
-    <t>NONE 3</t>
-  </si>
-  <si>
-    <t>NONE 4</t>
-  </si>
-  <si>
-    <t>NONE 5</t>
+    <t>"Ever smell odor from an animal farm when at home". Only question to assess odor</t>
+  </si>
+  <si>
+    <t>Definitely yes (low risk of bias)</t>
+  </si>
+  <si>
+    <t>All eligible cases are enrolled in a defined catchment area over a defined period of time during which diagnostic procedures would be unlikely to have changed</t>
+  </si>
+  <si>
+    <t>Probably no</t>
+  </si>
+  <si>
+    <t>ome eligible patients refused to participate: 73.8% and 64.2% of cases and controls agreed to participate. Controls were sampled from a population that is unlikely to be representative of the population that gave rise to the cases.</t>
+  </si>
+  <si>
+    <t>Only adjusted for educational status.  "Conditional logistic regression models, which adjusted for the matching variables age and gender, were used to derive odds ratios"</t>
   </si>
   <si>
     <t>High risk of bias for one or more key domains.</t>
   </si>
   <si>
-    <t>PR</t>
-  </si>
-  <si>
-    <t>Allergies</t>
-  </si>
-  <si>
-    <t>Miles From Nearest Swine CAFO</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>0.7</t>
-  </si>
-  <si>
-    <t>0.04</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>3.2</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>C</t>
+    <t>Live within 1 mile of a swine or poultry CAFO</t>
+  </si>
+  <si>
+    <t>". Finally, variables representing swine or poultry CAFOs within 1 mile radii of addresses might have been misclassified"</t>
+  </si>
+  <si>
+    <t>some eligible patients refused to participate: 73.8% and 64.2% of cases and controls agreed to participate. Controls were sampled from a population that is unlikely to be representative of the population that gave rise to the cases.</t>
+  </si>
+  <si>
+    <t>Permitted farrowing swine per square mile of block group</t>
+  </si>
+  <si>
+    <t>"Densities of total, farrowing, and non-farrowing permitted swine in each census block group (number of swine/square miles in the block group) were calculated using a publicly available database from the North Carolina Division of Water Quality, which lists the type and address of livestock facilities in North Carolina that hold nondischarge wastewater permits, as well the number of permitted animals at each.". " "The swine density analysis was limited by the use of block groups as spatial units, meaning that participants in low density block groups might have lived near swine in an adjacent block group, and participants in high density block groups could have lived in a part of the block group with low livestock densities.""</t>
+  </si>
+  <si>
+    <t>" participants were not blind to their MRSA carriage status". this seems geared to prompt MRSA-positive patients to be more likely to answer "Yes" to the exposure question.  "Additionally, only 49 cases identified by the PCR assay were confirmed to be MRSA by culture, which could mean that some were false positives. The PCR might have misidentified methicillin susceptible S. aureus with remnants of SCCmec as MRSA [49] or detected non-viable, non-culturable bacteria [50]. Since the hospital only swabbed the anterior nares, patients carrying MRSA at other locations of their bodies would have been classified as controls." . " Patients from these rural areas with less severe health problems might have visited the regional Vidant hospitals like Duplin hospital, and as a result, been excluded from the VMC hospitalized population and the current study.". "The swine density analysis was limited by the use of block groups as spatial units, meaning that participants in low density block groups might have lived near swine in an adjacent block group, and participants in high density block groups could have lived in a part of the block group with low livestock densities."</t>
+  </si>
+  <si>
+    <t>"" Patients from these rural areas with less severe health problems might have visited the regional Vidant hospitals like Duplin hospital, and as a result, been excluded from the VMC hospitalized population and the current study.""</t>
+  </si>
+  <si>
+    <t>Permitted non-farrowing swine per square mile of block group</t>
+  </si>
+  <si>
+    <t>"The swine density analysis was limited by the use of block groups as spatial units, meaning that participants in low density block groups might have lived near swine in an adjacent block group, and participants in high density block groups could have lived in a part of the block group with low livestock densities.". "Densities of total, farrowing, and non-farrowing permitted swine in each census block group (number of swine/square miles in the block group) were calculated using a publicly available database from the North Carolina Division of Water Quality"</t>
+  </si>
+  <si>
+    <t>" participants were not blind to their MRSA carriage status". this seems geared to prompt MRSA-positive patients to be more likely to answer "Yes" to the exposure question.  "Additionally, only 49 cases identified by the PCR assay were confirmed to be MRSA by culture, which could mean that some were false positives. The PCR might have misidentified methicillin susceptible S. aureus with remnants of SCCmec as MRSA [49] or detected non-viable, non-culturable bacteria [50]. Since the hospital only swabbed the anterior nares, patients carrying MRSA at other locations of their bodies would have been classified as controls." . " Patients from these rural areas with less severe health problems might have visited the regional Vidant hospitals like Duplin hospital, and as a result, been excluded from the VMC hospitalized population and the current study."</t>
+  </si>
+  <si>
+    <t>Permitted swine per square mile of block group</t>
+  </si>
+  <si>
+    <t>age  education  gender</t>
+  </si>
+  <si>
+    <t>"Densities of total, farrowing, and non-farrowing permitted swine in each census block group (number of swine/square miles in the block group) were calculated using a publicly available database from the North Carolina Division of Water Quality"</t>
+  </si>
+  <si>
+    <t>" participants were not blind to their MRSA carriage status". this seems geared to prompt MRSA-positive patients to be more likely to answer "Yes" to the exposure question.  "Additionally, only 49 cases identified by the PCR assay were confirmed to be MRSA by culture, which could mean that some were false positives. The PCR might have misidentified methicillin susceptible S. aureus with remnants of SCCmec as MRSA [49] or detected non-viable, non-culturable bacteria [50]. Since the hospital only swabbed the anterior nares, patients carrying MRSA at other locations of their bodies would have been classified as controls." . " Patients from these rural areas with less severe health problems might have visited the regional Vidant hospitals like Duplin hospital, and as a result, been excluded from the VMC hospitalized population and the current study.". ". Finally, variables representing swine or poultry CAFOs within 1 mile radii of addresses might have been misclassified"</t>
   </si>
   <si>
     <t>1.08</t>
   </si>
   <si>
-    <t>2.4</t>
-  </si>
-  <si>
-    <t>Definitely yes (low risk of bias)</t>
-  </si>
-  <si>
-    <t>Low risk of bias for all key domains.</t>
-  </si>
-  <si>
-    <t>Current wheeze children with Self-Reported Allergies</t>
-  </si>
-  <si>
-    <t>Distance</t>
-  </si>
-  <si>
-    <t>0-100</t>
-  </si>
-  <si>
-    <t>1.3</t>
-  </si>
-  <si>
-    <t>100-200</t>
-  </si>
-  <si>
-    <t>Probably no</t>
-  </si>
-  <si>
-    <t>Probably yes</t>
-  </si>
-  <si>
-    <t>Unclear risk of bias for one or more key domains.</t>
-  </si>
-  <si>
-    <t>652</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
+    <t>32508130</t>
+  </si>
+  <si>
+    <t>Acute children gastroenteritis</t>
+  </si>
+  <si>
+    <t>Poultry density</t>
+  </si>
+  <si>
+    <t>season, age group, sex, education, chronic diseases, low birth weight, swimming outdoors and contact with domestic, zoo or farm animals</t>
+  </si>
+  <si>
+    <t>&gt;=0.10 AU/ha (Q4) versus &lt;0.10 (AU is animal units)</t>
+  </si>
+  <si>
+    <t>0.69</t>
+  </si>
+  <si>
+    <t>1.50</t>
+  </si>
+  <si>
+    <t>0.32</t>
+  </si>
+  <si>
+    <t>Exposure objectively measured. "Livestock density data of each municipality were obtained from the Ministere de l’Agriculture du Qu_x0001_ebec (MAPAQ); data available as of January 2006." .  Even though exposure was collected  a bit later than cases reported in 2005, it seems unlikely that animal density  changed drastically.</t>
+  </si>
+  <si>
+    <t>Authors state "the evaluation of viral and parasitical infection for community cases was frequently lacking, but it did not have any impact on the bacterial findings that were the most preeminent infection among potential zoonotic cases". Parasitic infection could have been underdiagnosed.</t>
+  </si>
+  <si>
+    <t>Cases were enrolled using specific criteria: "We defined a case as a child who was (i) a resident of the study area; (ii) aged from 6 months to 5 years; (iii) either (a) hospitalized for diarrhoea in the absence of a diagnosed chronic gastrointestinal disease; or (b) notified to the public health department with a laboratory diagnosis of gastroenteritis for one of the microbial enteric pathogens of interest"</t>
+  </si>
+  <si>
+    <t>Authors state "For each case, two controls in the same age category (Table 1), living in the study area, were selected at random from the Qu ebec public health insurance plan (R egie de l’assurance-maladie du Qu ebec) and contacted the following day after the case was discovered.". “"all cases and controls derived from the same population base."</t>
+  </si>
+  <si>
+    <t>Adjusted for season, age group, sex, education, chronic diseases, low birth weight, swimming outdoors and contact with domestic, zoo or farm animals</t>
+  </si>
+  <si>
+    <t>Cattle density</t>
+  </si>
+  <si>
+    <t>&gt;=0.96 AU/ha (Q4) versus &lt;0.96 (AU is animal units)</t>
+  </si>
+  <si>
+    <t>0.51</t>
+  </si>
+  <si>
+    <t>1.16</t>
+  </si>
+  <si>
+    <t>0.23</t>
+  </si>
+  <si>
+    <t>Gastroenteritis with a bacterial or a parasite infection</t>
+  </si>
+  <si>
+    <t>Swine density</t>
+  </si>
+  <si>
+    <t>&gt;=0.79 AU/ha (Q4) versus &lt;0.79 (AU is animal units)</t>
+  </si>
+  <si>
+    <t>2.03</t>
+  </si>
+  <si>
+    <t>5.34</t>
+  </si>
+  <si>
+    <t>0.77</t>
+  </si>
+  <si>
+    <t>1.10</t>
+  </si>
+  <si>
+    <t>4.02</t>
+  </si>
+  <si>
+    <t>0.30</t>
+  </si>
+  <si>
+    <t>2.56</t>
+  </si>
+  <si>
+    <t>6.95</t>
+  </si>
+  <si>
+    <t>0.95</t>
+  </si>
+  <si>
+    <t>1.92</t>
+  </si>
+  <si>
+    <t>4.12</t>
+  </si>
+  <si>
+    <t>0.89</t>
+  </si>
+  <si>
+    <t>32508518</t>
+  </si>
+  <si>
+    <t>Non-specific diarrhea</t>
+  </si>
+  <si>
+    <t>Poultry operation activity quantile - Township</t>
+  </si>
+  <si>
+    <t>controlled for age, sex, race/ethnicity, Medical Assistance, and smoking status</t>
+  </si>
+  <si>
+    <t>1 (0–0.08)</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>2 (0.08–0.15)</t>
+  </si>
+  <si>
+    <t>1.01</t>
+  </si>
+  <si>
+    <t>3 (0.15–0.58)</t>
+  </si>
+  <si>
+    <t>1.04</t>
+  </si>
+  <si>
+    <t>1.11</t>
+  </si>
+  <si>
+    <t>0.98,</t>
+  </si>
+  <si>
+    <t>4 (0.58–702.62)</t>
+  </si>
+  <si>
+    <t>, 1.19</t>
+  </si>
+  <si>
+    <t>1.03</t>
+  </si>
+  <si>
+    <t>". We obtained NMPs for poultry operations in the 38-county study area from County Conservation Districts.". "The poultry operation activity metric was calculated based on previously reported methods (Casey et al. 2013; Rasmussen et al. 2016) and took into account the total number of poultry operations in the study area, the distance between each patient’s residence and poultry operations, and the number (in AEUs) of poultry at each operation.".</t>
+  </si>
+  <si>
+    <t>"Given the ambiguity of the non-specific diarrhea ICD-9 code, we used additional exclusion criteria for these cases. Specifically, we did not include cases with text descriptions for “frequent defecation” or “frequent stool,” and we excluded cases for one-year after EHR notations for causes of non-infectious diarrhea (e.g., “chemotherapy-induced diarrhea,” “antibiotic-associated diarrhea”) or if there was a diagnosis for an acute condition associated with diarrhea (i.e., cholera, typhoid, Norwalk virus, receiving chemotherapy).".  Collection of the outcome of interest clearly seems unrelated to the exposure of interest. ". Definition of the outcomes is problematic due to multiple causes.  "We examined infectious and non-specific diarrhea as outcomes in order to capture gastrointestinal infections whose relatively lower severity or persistence did not warrant testing for specific pathogens. The lack of specificity for the associated diagnostic codes presents a drawback to the inclusion of these outcomes, because many of these patients likely had diarrheal illnesses unrelated to environmental transmission". Similarly, it is possible a differential classification of the outcome because diagnoses was linked to a third variable: ". Additionally, considering that the majority of patients with acute gastroenteritis do not seek medical care (Scallan et al. 2006), it is likely that our studied patients represent the more severe or long-lasting diarrheal illnesses in the general population. "</t>
+  </si>
+  <si>
+    <t>"We identified cases from the five diagnostic groups using Geisinger system diagnostic codes and text descriptions cross-linked to International Classification of Diseases".  There is no evidence to conclude that diagnosis procedures changed.</t>
+  </si>
+  <si>
+    <t>Controls from the same case's clinics. "We randomly selected outpatient controls with no history of diarrhea diagnoses and frequency-matched them to cases by age category (&lt; 1, 1, 2–4, 5–9, 10–19, 20–29, 30–39, 40–49, 50–59, 60–69, 70–79, 80–99, ≥ 100), sex, and year of encounter. If a control had multiple encounters in a year, one encounter was randomly selected for the activity metric assignment date."</t>
+  </si>
+  <si>
+    <t>"Identifying potential confounders is problematic given the non-specificity of infectious diarrhea as an outcome, which has innumerable causes."</t>
+  </si>
+  <si>
+    <t>Infectious Diarrhea</t>
+  </si>
+  <si>
+    <t>1.51</t>
+  </si>
+  <si>
+    <t>,2.31</t>
+  </si>
+  <si>
+    <t>0.99</t>
+  </si>
+  <si>
+    <t>1.57</t>
+  </si>
+  <si>
+    <t>2.64</t>
+  </si>
+  <si>
+    <t>0.93</t>
+  </si>
+  <si>
+    <t>1.71</t>
+  </si>
+  <si>
+    <t>2.85</t>
+  </si>
+  <si>
+    <t>1.02</t>
+  </si>
+  <si>
+    <t>". Definition of the outcomes is problematic due to multiple causes.  "We examined infectious and non-specific diarrhea as outcomes in order to capture gastrointestinal infections whose relatively lower severity or persistence did not warrant testing for specific pathogens. The lack of specificity for the associated diagnostic codes presents a drawback to the inclusion of these outcomes, because many of these patients likely had diarrheal illnesses unrelated to environmental transmission". Similarly, it is possible a differential classification of the outcome because diagnoses was linked to a third variable: ". Additionally, considering that the majority of patients with acute gastroenteritis do not seek medical care (Scallan et al. 2006), it is likely that our studied patients represent the more severe or long-lasting diarrheal illnesses in the general population. "</t>
+  </si>
+  <si>
+    <t>It seems that controls are from the same case's clinics. "We randomly selected outpatient controls with no history of diarrhea diagnoses and frequency-matched them to cases by age category (&lt; 1, 1, 2–4, 5–9, 10–19, 20–29, 30–39, 40–49, 50–59, 60–69, 70–79, 80–99, ≥ 100), sex, and year of encounter. If a control had multiple encounters in a year, one encounter was randomly selected for the activity metric assignment date."</t>
+  </si>
+  <si>
+    <t>E. coli</t>
+  </si>
+  <si>
+    <t>1.74</t>
+  </si>
+  <si>
+    <t>1.28</t>
+  </si>
+  <si>
+    <t>1.95</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>1.61</t>
+  </si>
+  <si>
+    <t>2.72</t>
+  </si>
+  <si>
+    <t>Outcome objectively measured. "Diagnoses were identified as follows (ICD-9 codes, ICD-10 codes not documented as they were internally converted to ICD-9 during data extraction): intestinal infection related to Salmonella (003.0), E.coli (008.0, 008.00, 008.09, 041.4, 041.41, 041.49), or Campylobacter (008.43)"</t>
+  </si>
+  <si>
+    <t>"controlled for age, sex, race/ethnicity, Medical Assistance, and smoking status". "Several additional covariates were assessed as potential confounders, including season of diagnosis/encounter, distance to closest Geisinger facility, community socioeconomic deprivation, prior antibiotic use, and diagnosis with a gastrointestinal condition (i.e., inflammatory and irritable bowel diagnoses)"</t>
+  </si>
+  <si>
+    <t>Salmonella</t>
+  </si>
+  <si>
+    <t>Controlled for age, sex, race/ethnicity, Medical Assistance, and smoking status</t>
+  </si>
+  <si>
+    <t>2 (0.09–0.42)</t>
+  </si>
+  <si>
+    <t>0.83</t>
+  </si>
+  <si>
+    <t>1.27</t>
+  </si>
+  <si>
+    <t>0.54</t>
+  </si>
+  <si>
+    <t>3 (0.42–55.17)</t>
+  </si>
+  <si>
+    <t>1.17</t>
+  </si>
+  <si>
+    <t>1.83</t>
+  </si>
+  <si>
+    <t>0.74</t>
+  </si>
+  <si>
+    <t>Outcome objectively measured. ""We used positive fecal sample laboratory test results to identify Salmonella and Campylobacter cases in addition to those identified through codes". Authors not inform about possible discrepancies between codes and lab diagnosis.</t>
+  </si>
+  <si>
+    <t>1.37</t>
+  </si>
+  <si>
+    <t>1.87</t>
+  </si>
+  <si>
+    <t>2.28</t>
+  </si>
+  <si>
+    <t>4.45</t>
+  </si>
+  <si>
+    <t>1.72</t>
+  </si>
+  <si>
+    <t>Pig density in municipal area</t>
+  </si>
+  <si>
+    <t>Cow density in municipal area</t>
+  </si>
+  <si>
+    <t>Veal calf density</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>1.00</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>2.86</t>
+  </si>
+  <si>
+    <t>0.80</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>0.31</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>&gt;0-149</t>
+  </si>
+  <si>
+    <t>1.99</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>&gt;149</t>
+  </si>
+  <si>
+    <t>0.42</t>
+  </si>
+  <si>
+    <t>1.13</t>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>2.04</t>
+  </si>
+  <si>
+    <t>6.85</t>
+  </si>
+  <si>
+    <t>0.61</t>
+  </si>
+  <si>
+    <t>1.68</t>
+  </si>
+  <si>
+    <t>4.76</t>
+  </si>
+  <si>
+    <t>16.69</t>
+  </si>
+  <si>
+    <t>1.36</t>
+  </si>
+  <si>
+    <t>0.53</t>
+  </si>
+  <si>
+    <t>Gastrointestinal diseases</t>
   </si>
 </sst>
 </file>
@@ -315,18 +615,12 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -343,7 +637,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -658,10 +952,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI6"/>
+  <dimension ref="A1:AI19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AE2" sqref="AE2"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -691,7 +985,7 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
       <c r="J1" t="s">
@@ -703,7 +997,7 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
       <c r="N1" t="s">
@@ -715,7 +1009,7 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
       <c r="R1" t="s">
@@ -795,89 +1089,50 @@
       <c r="G2" t="s">
         <v>40</v>
       </c>
-      <c r="H2" t="s">
-        <v>41</v>
-      </c>
       <c r="I2" t="s">
+        <v>166</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z2" t="s">
         <v>42</v>
       </c>
-      <c r="J2" t="s">
+      <c r="AA2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB2" t="s">
         <v>43</v>
       </c>
-      <c r="K2" t="s">
+      <c r="AC2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD2" t="s">
         <v>44</v>
       </c>
-      <c r="L2" t="s">
+      <c r="AE2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF2" t="s">
         <v>45</v>
       </c>
-      <c r="M2" t="s">
+      <c r="AG2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH2" t="s">
         <v>46</v>
       </c>
-      <c r="N2" t="s">
+      <c r="AI2" t="s">
         <v>47</v>
-      </c>
-      <c r="O2" t="s">
-        <v>48</v>
-      </c>
-      <c r="P2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>50</v>
-      </c>
-      <c r="R2" t="s">
-        <v>51</v>
-      </c>
-      <c r="S2" t="s">
-        <v>52</v>
-      </c>
-      <c r="T2" t="s">
-        <v>53</v>
-      </c>
-      <c r="U2" t="s">
-        <v>54</v>
-      </c>
-      <c r="V2" t="s">
-        <v>55</v>
-      </c>
-      <c r="W2" t="s">
-        <v>44</v>
-      </c>
-      <c r="X2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.35">
@@ -891,88 +1146,61 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="F3" t="s">
         <v>39</v>
       </c>
       <c r="G3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H3" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>66</v>
-      </c>
-      <c r="J3" t="s">
-        <v>67</v>
-      </c>
-      <c r="K3" t="s">
+        <v>167</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD3" t="s">
         <v>44</v>
       </c>
-      <c r="L3" t="s">
-        <v>68</v>
-      </c>
-      <c r="M3" t="s">
-        <v>69</v>
-      </c>
-      <c r="N3" t="s">
-        <v>70</v>
-      </c>
-      <c r="O3" t="s">
-        <v>71</v>
-      </c>
-      <c r="P3" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>73</v>
-      </c>
-      <c r="R3" t="s">
-        <v>74</v>
-      </c>
-      <c r="S3" t="s">
-        <v>75</v>
-      </c>
-      <c r="T3" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>57</v>
-      </c>
       <c r="AE3" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="AF3" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="AG3" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="AH3" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="AI3" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.35">
@@ -986,81 +1214,66 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="F4" t="s">
         <v>39</v>
       </c>
       <c r="G4" t="s">
-        <v>79</v>
-      </c>
-      <c r="H4" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="I4" t="s">
-        <v>80</v>
-      </c>
-      <c r="J4" t="s">
-        <v>81</v>
-      </c>
-      <c r="K4" t="s">
-        <v>72</v>
-      </c>
-      <c r="L4" t="s">
+        <v>168</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB4" t="s">
         <v>43</v>
       </c>
-      <c r="M4" t="s">
-        <v>82</v>
-      </c>
-      <c r="N4" t="s">
-        <v>72</v>
-      </c>
-      <c r="O4" t="s">
-        <v>52</v>
-      </c>
-      <c r="P4">
-        <v>0.8</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>57</v>
-      </c>
       <c r="AC4" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="AD4" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="AE4" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="AF4" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="AG4" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="AH4" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="AI4" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
         <v>36</v>
@@ -1072,60 +1285,72 @@
         <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
       </c>
       <c r="G5" t="s">
-        <v>79</v>
-      </c>
-      <c r="I5" t="s">
-        <v>87</v>
-      </c>
-      <c r="J5">
-        <v>0.5</v>
-      </c>
-      <c r="K5">
-        <v>1.2</v>
-      </c>
-      <c r="L5">
-        <v>0.3</v>
-      </c>
-      <c r="M5" t="s">
-        <v>88</v>
-      </c>
-      <c r="N5">
-        <v>3.3</v>
-      </c>
-      <c r="O5">
-        <v>4</v>
-      </c>
-      <c r="P5">
-        <v>2</v>
+        <v>52</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="Y5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD5" t="s">
         <v>56</v>
       </c>
-      <c r="AA5" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>56</v>
-      </c>
       <c r="AE5" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>58</v>
       </c>
       <c r="AG5" t="s">
-        <v>56</v>
+        <v>41</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>59</v>
       </c>
       <c r="AI5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
         <v>36</v>
@@ -1137,88 +1362,1192 @@
         <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="F6" t="s">
         <v>39</v>
       </c>
       <c r="G6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" t="s">
+        <v>72</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" t="s">
+        <v>192</v>
+      </c>
+      <c r="G10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" t="s">
         <v>79</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I10" t="s">
+        <v>80</v>
+      </c>
+      <c r="J10" t="s">
+        <v>81</v>
+      </c>
+      <c r="K10" t="s">
+        <v>82</v>
+      </c>
+      <c r="L10" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" t="s">
+        <v>192</v>
+      </c>
+      <c r="G11" t="s">
         <v>89</v>
       </c>
-      <c r="I6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="H11" t="s">
+        <v>79</v>
+      </c>
+      <c r="I11" t="s">
         <v>90</v>
       </c>
-      <c r="K6" t="s">
+      <c r="J11" t="s">
         <v>91</v>
       </c>
-      <c r="L6" t="s">
-        <v>70</v>
-      </c>
-      <c r="M6" t="s">
-        <v>72</v>
-      </c>
-      <c r="N6" t="s">
-        <v>91</v>
-      </c>
-      <c r="O6" t="s">
+      <c r="K11" t="s">
         <v>92</v>
       </c>
-      <c r="P6" t="s">
+      <c r="L11" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F12" t="s">
+        <v>192</v>
+      </c>
+      <c r="G12" t="s">
+        <v>95</v>
+      </c>
+      <c r="H12" t="s">
+        <v>79</v>
+      </c>
+      <c r="I12" t="s">
+        <v>96</v>
+      </c>
+      <c r="J12" t="s">
+        <v>97</v>
+      </c>
+      <c r="K12" t="s">
+        <v>98</v>
+      </c>
+      <c r="L12" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" t="s">
+        <v>94</v>
+      </c>
+      <c r="F13" t="s">
+        <v>192</v>
+      </c>
+      <c r="G13" t="s">
+        <v>89</v>
+      </c>
+      <c r="H13" t="s">
+        <v>79</v>
+      </c>
+      <c r="I13" t="s">
         <v>90</v>
       </c>
-      <c r="Q6" t="s">
-        <v>70</v>
-      </c>
-      <c r="R6" t="s">
+      <c r="J13" t="s">
+        <v>100</v>
+      </c>
+      <c r="K13" t="s">
+        <v>101</v>
+      </c>
+      <c r="L13" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" t="s">
+        <v>94</v>
+      </c>
+      <c r="F14" t="s">
+        <v>192</v>
+      </c>
+      <c r="G14" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14" t="s">
+        <v>79</v>
+      </c>
+      <c r="I14" t="s">
+        <v>80</v>
+      </c>
+      <c r="J14" t="s">
+        <v>103</v>
+      </c>
+      <c r="K14" t="s">
+        <v>104</v>
+      </c>
+      <c r="L14" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" t="s">
+        <v>192</v>
+      </c>
+      <c r="G15" t="s">
+        <v>95</v>
+      </c>
+      <c r="H15" t="s">
+        <v>79</v>
+      </c>
+      <c r="I15" t="s">
+        <v>96</v>
+      </c>
+      <c r="J15" t="s">
+        <v>106</v>
+      </c>
+      <c r="K15" t="s">
+        <v>107</v>
+      </c>
+      <c r="L15" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" t="s">
+        <v>110</v>
+      </c>
+      <c r="F16" t="s">
+        <v>192</v>
+      </c>
+      <c r="G16" t="s">
+        <v>111</v>
+      </c>
+      <c r="H16" t="s">
+        <v>112</v>
+      </c>
+      <c r="I16" t="s">
+        <v>113</v>
+      </c>
+      <c r="J16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K16" t="s">
+        <v>114</v>
+      </c>
+      <c r="L16" t="s">
+        <v>114</v>
+      </c>
+      <c r="M16" t="s">
+        <v>115</v>
+      </c>
+      <c r="N16" t="s">
+        <v>75</v>
+      </c>
+      <c r="O16" t="s">
         <v>92</v>
       </c>
-      <c r="S6" t="s">
-        <v>93</v>
-      </c>
-      <c r="T6" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z6" t="s">
+      <c r="P16" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>117</v>
+      </c>
+      <c r="R16" t="s">
+        <v>118</v>
+      </c>
+      <c r="S16" t="s">
+        <v>119</v>
+      </c>
+      <c r="T16" t="s">
+        <v>120</v>
+      </c>
+      <c r="U16" t="s">
+        <v>121</v>
+      </c>
+      <c r="V16" t="s">
+        <v>100</v>
+      </c>
+      <c r="W16" t="s">
+        <v>122</v>
+      </c>
+      <c r="X16" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA16" t="s">
         <v>57</v>
       </c>
-      <c r="AA6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB6" t="s">
+      <c r="AB16" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>126</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG16" t="s">
         <v>57</v>
       </c>
-      <c r="AC6" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD6" t="s">
+      <c r="AH16" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" t="s">
+        <v>129</v>
+      </c>
+      <c r="F17" t="s">
+        <v>192</v>
+      </c>
+      <c r="G17" t="s">
+        <v>111</v>
+      </c>
+      <c r="H17" t="s">
+        <v>112</v>
+      </c>
+      <c r="I17" t="s">
+        <v>113</v>
+      </c>
+      <c r="J17" t="s">
+        <v>35</v>
+      </c>
+      <c r="K17" t="s">
+        <v>114</v>
+      </c>
+      <c r="L17" t="s">
+        <v>114</v>
+      </c>
+      <c r="M17" t="s">
+        <v>115</v>
+      </c>
+      <c r="N17" t="s">
+        <v>130</v>
+      </c>
+      <c r="O17" t="s">
+        <v>131</v>
+      </c>
+      <c r="P17" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>117</v>
+      </c>
+      <c r="R17" t="s">
+        <v>133</v>
+      </c>
+      <c r="S17" t="s">
+        <v>134</v>
+      </c>
+      <c r="T17" t="s">
+        <v>135</v>
+      </c>
+      <c r="U17" t="s">
+        <v>121</v>
+      </c>
+      <c r="V17" t="s">
+        <v>136</v>
+      </c>
+      <c r="W17" t="s">
+        <v>137</v>
+      </c>
+      <c r="X17" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA17" t="s">
         <v>57</v>
       </c>
-      <c r="AE6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF6" t="s">
+      <c r="AB17" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>126</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>140</v>
+      </c>
+      <c r="AG17" t="s">
         <v>57</v>
       </c>
-      <c r="AG6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>62</v>
+      <c r="AH17" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" t="s">
+        <v>141</v>
+      </c>
+      <c r="F18" t="s">
+        <v>192</v>
+      </c>
+      <c r="G18" t="s">
+        <v>111</v>
+      </c>
+      <c r="H18" t="s">
+        <v>112</v>
+      </c>
+      <c r="I18" t="s">
+        <v>113</v>
+      </c>
+      <c r="J18" t="s">
+        <v>35</v>
+      </c>
+      <c r="K18" t="s">
+        <v>114</v>
+      </c>
+      <c r="L18" t="s">
+        <v>114</v>
+      </c>
+      <c r="M18" t="s">
+        <v>115</v>
+      </c>
+      <c r="N18" t="s">
+        <v>119</v>
+      </c>
+      <c r="O18" t="s">
+        <v>142</v>
+      </c>
+      <c r="P18" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>117</v>
+      </c>
+      <c r="R18" t="s">
+        <v>143</v>
+      </c>
+      <c r="S18" t="s">
+        <v>144</v>
+      </c>
+      <c r="T18" t="s">
+        <v>145</v>
+      </c>
+      <c r="U18" t="s">
+        <v>121</v>
+      </c>
+      <c r="V18" t="s">
+        <v>146</v>
+      </c>
+      <c r="W18" t="s">
+        <v>147</v>
+      </c>
+      <c r="X18" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>126</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>140</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>149</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>109</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" t="s">
+        <v>150</v>
+      </c>
+      <c r="F19" t="s">
+        <v>192</v>
+      </c>
+      <c r="G19" t="s">
+        <v>111</v>
+      </c>
+      <c r="H19" t="s">
+        <v>151</v>
+      </c>
+      <c r="I19" t="s">
+        <v>113</v>
+      </c>
+      <c r="J19" t="s">
+        <v>35</v>
+      </c>
+      <c r="K19" t="s">
+        <v>114</v>
+      </c>
+      <c r="L19" t="s">
+        <v>114</v>
+      </c>
+      <c r="M19" t="s">
+        <v>152</v>
+      </c>
+      <c r="N19" t="s">
+        <v>153</v>
+      </c>
+      <c r="O19" t="s">
+        <v>154</v>
+      </c>
+      <c r="P19" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>156</v>
+      </c>
+      <c r="R19" t="s">
+        <v>157</v>
+      </c>
+      <c r="S19" t="s">
+        <v>158</v>
+      </c>
+      <c r="T19" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>126</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>140</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>149</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AI19" xr:uid="{82E41096-0445-4B2F-84F4-3C88A7E67AA2}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/datasets/distiller_casecontrol.xlsx
+++ b/datasets/distiller_casecontrol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://michiganstate-my.sharepoint.com/personal/fonsec16_msu_edu/Documents/Documents/CAFO-July-2021/Update-Website-July-2021/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{179BC9EF-1F4A-4B02-8DBB-233F165CA5B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{5164FACF-BFED-4620-8AA9-E40F57671019}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{179BC9EF-1F4A-4B02-8DBB-233F165CA5B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{98510C39-7C12-42A1-92FC-22673BDD7D6B}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AI$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AJ$19</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="197">
   <si>
     <t>Refid</t>
   </si>
@@ -602,6 +602,18 @@
   </si>
   <si>
     <t>Gastrointestinal diseases</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Canada</t>
   </si>
 </sst>
 </file>
@@ -952,15 +964,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI19"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:AJ19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="35" width="8.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1066,8 +1082,11 @@
       <c r="AI1" t="s">
         <v>34</v>
       </c>
+      <c r="AJ1" t="s">
+        <v>193</v>
+      </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -1134,8 +1153,11 @@
       <c r="AI2" t="s">
         <v>47</v>
       </c>
+      <c r="AJ2" t="s">
+        <v>194</v>
+      </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -1202,8 +1224,11 @@
       <c r="AI3" t="s">
         <v>47</v>
       </c>
+      <c r="AJ3" t="s">
+        <v>194</v>
+      </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -1270,8 +1295,11 @@
       <c r="AI4" t="s">
         <v>47</v>
       </c>
+      <c r="AJ4" t="s">
+        <v>195</v>
+      </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -1347,8 +1375,11 @@
       <c r="AI5" t="s">
         <v>60</v>
       </c>
+      <c r="AJ5" t="s">
+        <v>195</v>
+      </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -1424,8 +1455,11 @@
       <c r="AI6" t="s">
         <v>47</v>
       </c>
+      <c r="AJ6" t="s">
+        <v>195</v>
+      </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -1516,8 +1550,11 @@
       <c r="AI7" t="s">
         <v>47</v>
       </c>
+      <c r="AJ7" t="s">
+        <v>195</v>
+      </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -1608,8 +1645,11 @@
       <c r="AI8" t="s">
         <v>47</v>
       </c>
+      <c r="AJ8" t="s">
+        <v>195</v>
+      </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>50</v>
       </c>
@@ -1703,8 +1743,11 @@
       <c r="AI9" t="s">
         <v>47</v>
       </c>
+      <c r="AJ9" t="s">
+        <v>195</v>
+      </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>76</v>
       </c>
@@ -1774,8 +1817,11 @@
       <c r="AI10" t="s">
         <v>60</v>
       </c>
+      <c r="AJ10" t="s">
+        <v>196</v>
+      </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>76</v>
       </c>
@@ -1845,8 +1891,11 @@
       <c r="AI11" t="s">
         <v>60</v>
       </c>
+      <c r="AJ11" t="s">
+        <v>196</v>
+      </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>76</v>
       </c>
@@ -1916,8 +1965,11 @@
       <c r="AI12" t="s">
         <v>60</v>
       </c>
+      <c r="AJ12" t="s">
+        <v>196</v>
+      </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>76</v>
       </c>
@@ -1987,8 +2039,11 @@
       <c r="AI13" t="s">
         <v>60</v>
       </c>
+      <c r="AJ13" t="s">
+        <v>196</v>
+      </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>76</v>
       </c>
@@ -2058,8 +2113,11 @@
       <c r="AI14" t="s">
         <v>60</v>
       </c>
+      <c r="AJ14" t="s">
+        <v>196</v>
+      </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>76</v>
       </c>
@@ -2129,8 +2187,11 @@
       <c r="AI15" t="s">
         <v>60</v>
       </c>
+      <c r="AJ15" t="s">
+        <v>196</v>
+      </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>109</v>
       </c>
@@ -2236,8 +2297,11 @@
       <c r="AI16" t="s">
         <v>47</v>
       </c>
+      <c r="AJ16" t="s">
+        <v>195</v>
+      </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>109</v>
       </c>
@@ -2343,8 +2407,11 @@
       <c r="AI17" t="s">
         <v>47</v>
       </c>
+      <c r="AJ17" t="s">
+        <v>195</v>
+      </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>109</v>
       </c>
@@ -2450,8 +2517,11 @@
       <c r="AI18" t="s">
         <v>47</v>
       </c>
+      <c r="AJ18" t="s">
+        <v>195</v>
+      </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>109</v>
       </c>
@@ -2545,9 +2615,18 @@
       <c r="AI19" t="s">
         <v>47</v>
       </c>
+      <c r="AJ19" t="s">
+        <v>195</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AI19" xr:uid="{82E41096-0445-4B2F-84F4-3C88A7E67AA2}"/>
+  <autoFilter ref="A1:AJ19" xr:uid="{D28BD90C-3481-4D70-B9C6-8D5FD5AD9CEB}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Antimicrobial resistance"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/datasets/distiller_casecontrol.xlsx
+++ b/datasets/distiller_casecontrol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://michiganstate-my.sharepoint.com/personal/fonsec16_msu_edu/Documents/Documents/CAFO-July-2021/Update-Website-July-2021/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{179BC9EF-1F4A-4B02-8DBB-233F165CA5B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{98510C39-7C12-42A1-92FC-22673BDD7D6B}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="8_{179BC9EF-1F4A-4B02-8DBB-233F165CA5B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{CE032184-FC64-4A92-9EED-C144F16DD032}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -968,7 +968,7 @@
   <dimension ref="A1:AJ19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>

--- a/datasets/distiller_casecontrol.xlsx
+++ b/datasets/distiller_casecontrol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://michiganstate-my.sharepoint.com/personal/fonsec16_msu_edu/Documents/Documents/CAFO-July-2021/Update-Website-July-2021/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="8_{179BC9EF-1F4A-4B02-8DBB-233F165CA5B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{CE032184-FC64-4A92-9EED-C144F16DD032}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="8_{179BC9EF-1F4A-4B02-8DBB-233F165CA5B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{62EE0FA8-3CBD-4DD5-8FF0-78E9C0AFC257}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AJ$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AJ$26</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="225">
   <si>
     <t>Refid</t>
   </si>
@@ -277,21 +277,6 @@
     <t>0.32</t>
   </si>
   <si>
-    <t>Exposure objectively measured. "Livestock density data of each municipality were obtained from the Ministere de l’Agriculture du Qu_x0001_ebec (MAPAQ); data available as of January 2006." .  Even though exposure was collected  a bit later than cases reported in 2005, it seems unlikely that animal density  changed drastically.</t>
-  </si>
-  <si>
-    <t>Authors state "the evaluation of viral and parasitical infection for community cases was frequently lacking, but it did not have any impact on the bacterial findings that were the most preeminent infection among potential zoonotic cases". Parasitic infection could have been underdiagnosed.</t>
-  </si>
-  <si>
-    <t>Cases were enrolled using specific criteria: "We defined a case as a child who was (i) a resident of the study area; (ii) aged from 6 months to 5 years; (iii) either (a) hospitalized for diarrhoea in the absence of a diagnosed chronic gastrointestinal disease; or (b) notified to the public health department with a laboratory diagnosis of gastroenteritis for one of the microbial enteric pathogens of interest"</t>
-  </si>
-  <si>
-    <t>Authors state "For each case, two controls in the same age category (Table 1), living in the study area, were selected at random from the Qu ebec public health insurance plan (R egie de l’assurance-maladie du Qu ebec) and contacted the following day after the case was discovered.". “"all cases and controls derived from the same population base."</t>
-  </si>
-  <si>
-    <t>Adjusted for season, age group, sex, education, chronic diseases, low birth weight, swimming outdoors and contact with domestic, zoo or farm animals</t>
-  </si>
-  <si>
     <t>Cattle density</t>
   </si>
   <si>
@@ -358,156 +343,30 @@
     <t>Non-specific diarrhea</t>
   </si>
   <si>
-    <t>Poultry operation activity quantile - Township</t>
-  </si>
-  <si>
-    <t>controlled for age, sex, race/ethnicity, Medical Assistance, and smoking status</t>
-  </si>
-  <si>
-    <t>1 (0–0.08)</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
-    <t>2 (0.08–0.15)</t>
-  </si>
-  <si>
     <t>1.01</t>
   </si>
   <si>
-    <t>3 (0.15–0.58)</t>
-  </si>
-  <si>
     <t>1.04</t>
   </si>
   <si>
     <t>1.11</t>
   </si>
   <si>
-    <t>0.98,</t>
-  </si>
-  <si>
-    <t>4 (0.58–702.62)</t>
-  </si>
-  <si>
-    <t>, 1.19</t>
-  </si>
-  <si>
-    <t>1.03</t>
-  </si>
-  <si>
-    <t>". We obtained NMPs for poultry operations in the 38-county study area from County Conservation Districts.". "The poultry operation activity metric was calculated based on previously reported methods (Casey et al. 2013; Rasmussen et al. 2016) and took into account the total number of poultry operations in the study area, the distance between each patient’s residence and poultry operations, and the number (in AEUs) of poultry at each operation.".</t>
-  </si>
-  <si>
-    <t>"Given the ambiguity of the non-specific diarrhea ICD-9 code, we used additional exclusion criteria for these cases. Specifically, we did not include cases with text descriptions for “frequent defecation” or “frequent stool,” and we excluded cases for one-year after EHR notations for causes of non-infectious diarrhea (e.g., “chemotherapy-induced diarrhea,” “antibiotic-associated diarrhea”) or if there was a diagnosis for an acute condition associated with diarrhea (i.e., cholera, typhoid, Norwalk virus, receiving chemotherapy).".  Collection of the outcome of interest clearly seems unrelated to the exposure of interest. ". Definition of the outcomes is problematic due to multiple causes.  "We examined infectious and non-specific diarrhea as outcomes in order to capture gastrointestinal infections whose relatively lower severity or persistence did not warrant testing for specific pathogens. The lack of specificity for the associated diagnostic codes presents a drawback to the inclusion of these outcomes, because many of these patients likely had diarrheal illnesses unrelated to environmental transmission". Similarly, it is possible a differential classification of the outcome because diagnoses was linked to a third variable: ". Additionally, considering that the majority of patients with acute gastroenteritis do not seek medical care (Scallan et al. 2006), it is likely that our studied patients represent the more severe or long-lasting diarrheal illnesses in the general population. "</t>
-  </si>
-  <si>
-    <t>"We identified cases from the five diagnostic groups using Geisinger system diagnostic codes and text descriptions cross-linked to International Classification of Diseases".  There is no evidence to conclude that diagnosis procedures changed.</t>
-  </si>
-  <si>
-    <t>Controls from the same case's clinics. "We randomly selected outpatient controls with no history of diarrhea diagnoses and frequency-matched them to cases by age category (&lt; 1, 1, 2–4, 5–9, 10–19, 20–29, 30–39, 40–49, 50–59, 60–69, 70–79, 80–99, ≥ 100), sex, and year of encounter. If a control had multiple encounters in a year, one encounter was randomly selected for the activity metric assignment date."</t>
-  </si>
-  <si>
-    <t>"Identifying potential confounders is problematic given the non-specificity of infectious diarrhea as an outcome, which has innumerable causes."</t>
-  </si>
-  <si>
-    <t>Infectious Diarrhea</t>
-  </si>
-  <si>
     <t>1.51</t>
   </si>
   <si>
-    <t>,2.31</t>
-  </si>
-  <si>
     <t>0.99</t>
   </si>
   <si>
-    <t>1.57</t>
-  </si>
-  <si>
-    <t>2.64</t>
-  </si>
-  <si>
-    <t>0.93</t>
-  </si>
-  <si>
-    <t>1.71</t>
-  </si>
-  <si>
-    <t>2.85</t>
-  </si>
-  <si>
-    <t>1.02</t>
-  </si>
-  <si>
-    <t>". Definition of the outcomes is problematic due to multiple causes.  "We examined infectious and non-specific diarrhea as outcomes in order to capture gastrointestinal infections whose relatively lower severity or persistence did not warrant testing for specific pathogens. The lack of specificity for the associated diagnostic codes presents a drawback to the inclusion of these outcomes, because many of these patients likely had diarrheal illnesses unrelated to environmental transmission". Similarly, it is possible a differential classification of the outcome because diagnoses was linked to a third variable: ". Additionally, considering that the majority of patients with acute gastroenteritis do not seek medical care (Scallan et al. 2006), it is likely that our studied patients represent the more severe or long-lasting diarrheal illnesses in the general population. "</t>
-  </si>
-  <si>
-    <t>It seems that controls are from the same case's clinics. "We randomly selected outpatient controls with no history of diarrhea diagnoses and frequency-matched them to cases by age category (&lt; 1, 1, 2–4, 5–9, 10–19, 20–29, 30–39, 40–49, 50–59, 60–69, 70–79, 80–99, ≥ 100), sex, and year of encounter. If a control had multiple encounters in a year, one encounter was randomly selected for the activity metric assignment date."</t>
-  </si>
-  <si>
-    <t>E. coli</t>
-  </si>
-  <si>
-    <t>1.74</t>
-  </si>
-  <si>
-    <t>1.28</t>
-  </si>
-  <si>
-    <t>1.95</t>
-  </si>
-  <si>
-    <t>0.85</t>
-  </si>
-  <si>
-    <t>1.61</t>
-  </si>
-  <si>
-    <t>2.72</t>
-  </si>
-  <si>
-    <t>Outcome objectively measured. "Diagnoses were identified as follows (ICD-9 codes, ICD-10 codes not documented as they were internally converted to ICD-9 during data extraction): intestinal infection related to Salmonella (003.0), E.coli (008.0, 008.00, 008.09, 041.4, 041.41, 041.49), or Campylobacter (008.43)"</t>
-  </si>
-  <si>
-    <t>"controlled for age, sex, race/ethnicity, Medical Assistance, and smoking status". "Several additional covariates were assessed as potential confounders, including season of diagnosis/encounter, distance to closest Geisinger facility, community socioeconomic deprivation, prior antibiotic use, and diagnosis with a gastrointestinal condition (i.e., inflammatory and irritable bowel diagnoses)"</t>
-  </si>
-  <si>
-    <t>Salmonella</t>
-  </si>
-  <si>
-    <t>Controlled for age, sex, race/ethnicity, Medical Assistance, and smoking status</t>
-  </si>
-  <si>
-    <t>2 (0.09–0.42)</t>
-  </si>
-  <si>
-    <t>0.83</t>
-  </si>
-  <si>
-    <t>1.27</t>
-  </si>
-  <si>
     <t>0.54</t>
   </si>
   <si>
-    <t>3 (0.42–55.17)</t>
-  </si>
-  <si>
     <t>1.17</t>
   </si>
   <si>
-    <t>1.83</t>
-  </si>
-  <si>
-    <t>0.74</t>
-  </si>
-  <si>
-    <t>Outcome objectively measured. ""We used positive fecal sample laboratory test results to identify Salmonella and Campylobacter cases in addition to those identified through codes". Authors not inform about possible discrepancies between codes and lab diagnosis.</t>
-  </si>
-  <si>
     <t>1.37</t>
   </si>
   <si>
@@ -601,9 +460,6 @@
     <t>0.53</t>
   </si>
   <si>
-    <t>Gastrointestinal diseases</t>
-  </si>
-  <si>
     <t>Country</t>
   </si>
   <si>
@@ -613,7 +469,235 @@
     <t>USA</t>
   </si>
   <si>
-    <t>Canada</t>
+    <t>sarah_totton</t>
+  </si>
+  <si>
+    <t>Gastrointestinal condition</t>
+  </si>
+  <si>
+    <t>Exposure was objectively measured at the level of the municipality. "Our measure of animal farming intensity was quite crude, which may reduce our ability to detect an association with animal farming activity." "Livestock density data of each municipality were obtained from the Ministere de l’Agriculture du Quebec (MAPAQ); data available as of January 2006. Livestock density was defined as the number of animal units relative to total cultivated area (a.u./ha) within a municipality." It would have been more ideal to have matched the year of assessment of the participants and the livestock density at the time.</t>
+  </si>
+  <si>
+    <t>The authors did not report testing the stool of controls for infectious agents. It is therefore possible that some controls were asymptomatically infected. Diagnoses of cases were made using clinical laboratory tests: "Three faecal samples were collected from the cases within 48 h of admission to hospital. Samples for bacteriological culture were placed in an Enteric Pathogen Transport medium (Quelab laboratories, Quebec, Canada), preserved at 4°C and transported to the hospital laboratory. Samples for protozoan evaluation were collected in a parasitology medium (sodium acetate, acetic acid and formalin – SAF) and stored at room temperature. Samples for virus detection were collected in a transport tube, frozen at -20 to -80°C (depending on hospital facilities)." It's unclear if the outcome assessors were blinded to the exposure status of the participants.</t>
+  </si>
+  <si>
+    <t>"all cases and controls derived from the same population base." "Participation among eligible hospitalized was about 90% and 87% among notified cases. " "Given the accessibility of all the population to hospital and medical consultation in all the areas of the study, we do consider that all severe cases of gastroenteritis in young children were gathered within the study area"</t>
+  </si>
+  <si>
+    <t>"Participation among eligible controls was about 92%."  "all cases and controls derived from the same population base."</t>
+  </si>
+  <si>
+    <t>The adjusted model controlled for season, age group, sex, education, chronic diseases, low birth weight, swimming outdoors and contact with domestic, zoo or farm animals.</t>
+  </si>
+  <si>
+    <t>Note: I only extracted results from the model in Table 5 that controlled for contact with domestic, zoo or farm animals, not the model that did not.</t>
+  </si>
+  <si>
+    <t>Poultry operation activity quartile - prior antibiotic use</t>
+  </si>
+  <si>
+    <t>sex, age, race/ethnicity, Medical Assistance, and smoking status (a risk factor for gastrointestinal disorders)</t>
+  </si>
+  <si>
+    <t>Q2 vs Q1</t>
+  </si>
+  <si>
+    <t>NR</t>
+  </si>
+  <si>
+    <t>Q3 vs Q1</t>
+  </si>
+  <si>
+    <t>Q4 vs Q1</t>
+  </si>
+  <si>
+    <t>1.22</t>
+  </si>
+  <si>
+    <t>For the non-specific diarrhea, it's not clear how long the exposure would be, but it is probably safe to make the assumption that the exposure happened relatively recently to the diagnosis. "The latitude and longitude of patients’ addresses were geocoded using ArcGIS version 10.1 (Esri, Redlands, CA)." "NMPs provide information on livestock operation location and animal type and quantity. We obtained NMPs for poultry operations in the 38-county study area from County Conservation Districts. We located the latitude and longitude of poultry operations using Google Earth with visual confirmation of a poultry house on-site." "The poultry operation activity metric was calculated based on previously reported methods (Casey et al. 2013; Rasmussen et al. 2016) and took into account the total number of poultry operations in the study area, the distance between each patient’s residence and poultry operations, and the number (in AEUs) of poultry at each operation."</t>
+  </si>
+  <si>
+    <t>These were objectively assessed using electronic health records: "Using electronic health record (EHR) data, we identified child and adult patients with one of five gastrointestinal outcomes from the Geisinger Clinic, an integrated health system in Pennsylvania, USA." "it is likely that our studied patients represent the more severe or long-lasting diarrheal illnesses in the general population" "The lack of specificity for the associated diagnostic codes presents a drawback to the inclusion of these outcomes, because many of these patients likely had diarrheal illnesses unrelated to environmental transmission." "Given the ambiguity of the non-specific diarrhea ICD-9 code, we used additional exclusion criteria for these cases. Specifically, we did not include cases with text descriptions for “frequent defecation” or 'frequent stool,' and we excluded cases for one-year after EHR notations for causes of non-infectious diarrhea (e.g., 'chemotherapy-induced diarrhea,' 'antibiotic-associated diarrhea') or if there was a diagnosis for an acute condition associated with diarrhea (i.e., cholera, typhoid, Norwalk virus, receiving chemotherapy)." "Any associations with poultry IFAP would likely be eclipsed by the abundance of other, more predominant causes of non-specific diarrhea (e.g., medication or chronic illness)."</t>
+  </si>
+  <si>
+    <t>"without a comprehensive account of study patients’ medical history, including all diarrheal episodes, instances of adaptive immunity could have lead to misclassification of cases as controls, biasing estimates toward the null."</t>
+  </si>
+  <si>
+    <t>: "We randomly selected outpatient controls with no history of diarrhea diagnoses and frequency-matched them to cases by age category (&lt; 1, 1, 2–4, 5–9, 10–19, 20–29, 30–39, 40–49, 50–59, 60–69, 70–79, 80–99, ≥ 100), sex, and year of encounter." "without a comprehensive account of study patients’ medical history, including all diarrheal episodes, instances of adaptive immunity could have lead to misclassification of cases as controls, biasing estimates toward the null."</t>
+  </si>
+  <si>
+    <t>The authors did not adjust for or exclude people who lived or worked on farms, so occupational-exposure-related illness cannot be ruled out.</t>
+  </si>
+  <si>
+    <t>Campylobacter</t>
+  </si>
+  <si>
+    <t>Poultry Operation Activity Quartile - Non-medical Assistance Patient</t>
+  </si>
+  <si>
+    <t>1.52</t>
+  </si>
+  <si>
+    <t>2.09</t>
+  </si>
+  <si>
+    <t>The incubation is relatively short (5 days) so residence probably does reflect exposure. "The latitude and longitude of patients’ addresses were geocoded using ArcGIS version 10.1 (Esri, Redlands, CA)." "NMPs provide information on livestock operation location and animal type and quantity. We obtained NMPs for poultry operations in the 38-county study area from County Conservation Districts. We located the latitude and longitude of poultry operations using Google Earth with visual confirmation of a poultry house on-site." "The poultry operation activity metric was calculated based on previously reported methods (Casey et al. 2013; Rasmussen et al. 2016) and took into account the total number of poultry operations in the study area, the distance between each patient’s residence and poultry operations, and the number (in AEUs) of poultry at each operation."</t>
+  </si>
+  <si>
+    <t>"We used positive fecal sample laboratory test results to identify Salmonella and Campylobacter cases in addition to those identified through codes; negative test results received one week before or after a diagnostic code were used to exclude patients as cases." Controls were not tested for Campylobacter.</t>
+  </si>
+  <si>
+    <t>"Geisinger primary care patients represent the age and sex distribution of the general population in central and northeastern Pennsylvania (J. A. Casey et al. 2016)."</t>
+  </si>
+  <si>
+    <t>"We randomly selected outpatient controls with no history of diarrhea diagnoses and frequency-matched them to cases by age category (&lt; 1, 1, 2–4, 5–9, 10–19, 20–29, 30–39, 40–49, 50–59, 60–69, 70–79, 80–99, ≥ 100), sex, and year of encounter." "without a comprehensive account of study patients’ medical history, including all diarrheal episodes, instances of adaptive immunity could have lead to misclassification of cases as controls, biasing estimates toward the null."</t>
+  </si>
+  <si>
+    <t>The authors did not control for or exclude people who lived or worked on farms.</t>
+  </si>
+  <si>
+    <t>Poultry Operation Activity Quartile - Medical Assistance Patients</t>
+  </si>
+  <si>
+    <t>2.29</t>
+  </si>
+  <si>
+    <t>4.48</t>
+  </si>
+  <si>
+    <t>2.84</t>
+  </si>
+  <si>
+    <t>6.05</t>
+  </si>
+  <si>
+    <t>1.34</t>
+  </si>
+  <si>
+    <t>3.29</t>
+  </si>
+  <si>
+    <t>6.65</t>
+  </si>
+  <si>
+    <t>1.62</t>
+  </si>
+  <si>
+    <t>Poultry Operation Activity Quartile - 0 Precipitation Events</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>1.15</t>
+  </si>
+  <si>
+    <t>0.9</t>
+  </si>
+  <si>
+    <t>ORs and 95% confidence intervals were extracted from a graph (Figure 3).</t>
+  </si>
+  <si>
+    <t>Poultry Operation Activity Quartile - 1 Precipitation Event</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>Poultry Operation Activity Quartile - 2 Precipitation Events</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>1.7</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>Poultry Operation Activity Quartile - 3 Preciptation Events</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>14.5</t>
+  </si>
+  <si>
+    <t>32509233</t>
+  </si>
+  <si>
+    <t>Other Effect measure</t>
+  </si>
+  <si>
+    <t>32509566</t>
+  </si>
+  <si>
+    <t>Asthma hospitalizations</t>
+  </si>
+  <si>
+    <t>Lower respiratory</t>
+  </si>
+  <si>
+    <t>Proximity of residential address to nearest swine or cattle CAFO</t>
+  </si>
+  <si>
+    <t>adjusted for race/ethnicity (white, black, Hispanic, other), family history of asthma (yes, no), smoking status (never, former, current, missing), Medical Assistance (yes vs. no), overweight/obesity (normal, body mass index (BMI) &lt; 85th percentile or BMI &lt; 25 kg/m2; overweight, BMI = 85th &lt; 95th percentile or BMI = 25 &lt; 30 kg/m2; obese, BMI _x0015_ 95th percentile or BMI _x0015_ 30 kg/m2, for children and adults, respectively; BMI missing), type 2 diabetes (yes vs. no), community socioeconomic deprivation (quartiles), distance to nearest major and minor arterial road (truncated at the 98th percentile, meters, z-transformed), squared distance to nearest major and minor arterial road (truncated at the 98th percentile, meters, z-transformed), distance to nearest Geisinger hospital (truncated at the 98th percentile, kilometers, z-transformed), squared distance to nearest Geisinger hospital (truncated at the 98th percentile, kilometers, z-transformed), age category (5–12, 13–18, 19–44, 45–61, 62–74, 75+ years), sex (male, female), and year of event (2005, 2006, 2007, 2008, 2009, 2010, 2011, 2012)</t>
+  </si>
+  <si>
+    <t>CAFO within 3 miles of the residence (vs more than 3 miles from the residence)</t>
+  </si>
+  <si>
+    <t>1.29</t>
+  </si>
+  <si>
+    <t>1.46</t>
+  </si>
+  <si>
+    <t>"Swine and dairy/veal IFAP were identified in nutrient management plans from the Pennsylvania Department of Environmental Protection and County Conservation Districts in the Geisinger Clinic’s service area and adjacent counties" "Patients were geocoded to their home addresses" "The buffer proximity approach treated swine and dairy/veal facilities as the same, though emissions may differ between the two, and did not incorporate animal count, IFAP building characteristics, or wind direction." Patients are unlikely to have moved, as "an analysis in a prior study of this population indication low residential mobility" "We only collected information on IFAP in 2010 and 2011, and we assumed facilities were in the same location for the entire study period. However, we verified the locations of a random sample of 20 IFAP in Google Earth’s historical aerial imagery, and all were present in the images since at least 2005, so we believe this was a reasonable assumption."</t>
+  </si>
+  <si>
+    <t>Using medical records, "For each type of asthma exacerbation, we compared asthma patients with at least one exacerbation of that type during the study period to comparison subjects, who were asthma patients with no or less severe exacerbations (OCS order &lt; emergency encounter &lt; hospitalization) during the study period."</t>
+  </si>
+  <si>
+    <t>This was objective and the assessor was likely unaware of the participant's exposure status: "We used a diagnosis code (International Classification of Diseases, 9th Revision, Clinical Modification code 493.x) and medication orders from electronic health records to identify these exacerbations among asthma patients" "The EHR only captures events for which patients seek care, so we do not have data on asthma symptoms that patients could treat on their own without medical care."</t>
+  </si>
+  <si>
+    <t>"The study population consisted of primary patients with asthma, and we identified the study population from the Geisinger Clinic population, which is representative of the general population in the region, using methods described in a prior study"</t>
+  </si>
+  <si>
+    <t>The authors did not control for employment as a confounder.</t>
+  </si>
+  <si>
+    <t>Asthma emergency department visits</t>
+  </si>
+  <si>
+    <t>1.12</t>
+  </si>
+  <si>
+    <t>0.91</t>
+  </si>
+  <si>
+    <t>New asthma oral coritcosteroid orders</t>
+  </si>
+  <si>
+    <t>adjusted for race/ethnicity (white, black, Hispanic, other), family history of asthma (yes, no), smoking status (never, former, current, missing), Medical Assistance (yes vs. no), overweight/obesity (normal, body mass index (BMI) &lt; 85th percentile or BMI &lt; 25 kg/m2; overweight, BMI = 85th &lt; 95th percentile or BMI = 25 &lt; 30 kg/m2; obese, BMI _x0015_ 95th percentile or BMI _x0015_ 30 kg/m2, for children and adults, respectively; BMI missing), type 2 diabetes (yes vs. no), community socioeconomic deprivation (quartiles), distance to nearest major and minor arterial road (truncated at the 98th percentile, meters, z-transformed), squared distance to nearest major and minor arterial road (truncated at the 98th percentile, meters, z-transformed), age category (5–12, 13–18, 19–44, 45–61, 62–74, 75+ years), sex (male, female), and year of event (2008, 2009, 2010, 2011, 2012);</t>
+  </si>
+  <si>
+    <t>1.19</t>
   </si>
 </sst>
 </file>
@@ -627,12 +711,18 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -647,9 +737,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -964,11 +1056,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:AJ19"/>
+  <dimension ref="A1:AJ26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1083,7 +1174,7 @@
         <v>34</v>
       </c>
       <c r="AJ1" t="s">
-        <v>193</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.35">
@@ -1109,16 +1200,16 @@
         <v>40</v>
       </c>
       <c r="I2" t="s">
-        <v>166</v>
+        <v>119</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>161</v>
+        <v>114</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>162</v>
+        <v>115</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="Y2" t="s">
         <v>41</v>
@@ -1154,7 +1245,7 @@
         <v>47</v>
       </c>
       <c r="AJ2" t="s">
-        <v>194</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.35">
@@ -1180,16 +1271,16 @@
         <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>167</v>
+        <v>120</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>163</v>
+        <v>116</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>164</v>
+        <v>117</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>157</v>
+        <v>113</v>
       </c>
       <c r="Y3" t="s">
         <v>41</v>
@@ -1225,7 +1316,7 @@
         <v>47</v>
       </c>
       <c r="AJ3" t="s">
-        <v>194</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.35">
@@ -1251,13 +1342,13 @@
         <v>49</v>
       </c>
       <c r="I4" t="s">
-        <v>168</v>
+        <v>121</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>161</v>
+        <v>114</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>165</v>
+        <v>118</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>75</v>
@@ -1296,7 +1387,7 @@
         <v>47</v>
       </c>
       <c r="AJ4" t="s">
-        <v>195</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.35">
@@ -1322,28 +1413,28 @@
         <v>52</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>169</v>
+        <v>122</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>170</v>
+        <v>123</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>172</v>
+        <v>125</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>173</v>
+        <v>126</v>
       </c>
       <c r="Y5" t="s">
         <v>53</v>
@@ -1376,7 +1467,7 @@
         <v>60</v>
       </c>
       <c r="AJ5" t="s">
-        <v>195</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.35">
@@ -1402,28 +1493,28 @@
         <v>61</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>169</v>
+        <v>122</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>170</v>
+        <v>123</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>174</v>
+        <v>127</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>175</v>
+        <v>128</v>
       </c>
       <c r="Y6" t="s">
         <v>41</v>
@@ -1456,7 +1547,7 @@
         <v>47</v>
       </c>
       <c r="AJ6" t="s">
-        <v>195</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.35">
@@ -1482,40 +1573,40 @@
         <v>64</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>176</v>
+        <v>129</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>170</v>
+        <v>123</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>177</v>
+        <v>130</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>178</v>
+        <v>131</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>179</v>
+        <v>132</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>180</v>
+        <v>133</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>181</v>
+        <v>134</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>182</v>
+        <v>135</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>183</v>
+        <v>136</v>
       </c>
       <c r="Y7" t="s">
         <v>41</v>
@@ -1551,7 +1642,7 @@
         <v>47</v>
       </c>
       <c r="AJ7" t="s">
-        <v>195</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.35">
@@ -1577,40 +1668,40 @@
         <v>68</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>176</v>
+        <v>129</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>170</v>
+        <v>123</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>177</v>
+        <v>130</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>184</v>
+        <v>137</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>185</v>
+        <v>138</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>186</v>
+        <v>139</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>180</v>
+        <v>133</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>187</v>
+        <v>140</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>155</v>
+        <v>112</v>
       </c>
       <c r="Y8" t="s">
         <v>41</v>
@@ -1646,7 +1737,7 @@
         <v>47</v>
       </c>
       <c r="AJ8" t="s">
-        <v>195</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.35">
@@ -1675,40 +1766,40 @@
         <v>72</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>176</v>
+        <v>129</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>170</v>
+        <v>123</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>177</v>
+        <v>130</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>188</v>
+        <v>141</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>189</v>
+        <v>142</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>190</v>
+        <v>143</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>180</v>
+        <v>133</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>165</v>
+        <v>118</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>191</v>
+        <v>144</v>
       </c>
       <c r="Y9" t="s">
         <v>41</v>
@@ -1744,889 +1835,1567 @@
         <v>47</v>
       </c>
       <c r="AJ9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" s="3">
+        <v>3</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB10" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD10" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="AE10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF10" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="AG10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH10" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="AI10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ10" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD11" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AE11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF11" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AG11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH11" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AI11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ11" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD12" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AE12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF12" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AG12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH12" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AI12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ12" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB13" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD13" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AE13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF13" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AG13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH13" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AI13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ13" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB14" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD14" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AE14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF14" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AG14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH14" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AI14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ14" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB15" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD15" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AE15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF15" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AG15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH15" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AI15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ15" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB16" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AC16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD16" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AE16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF16" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="AG16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH16" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AI16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ16" s="1"/>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C17" s="1">
+        <v>3</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z17" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AA17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB17" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD17" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AE17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF17" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="AG17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH17" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="AI17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ17" s="1"/>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C18" s="1">
+        <v>3</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z18" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AA18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB18" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD18" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AE18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF18" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="AG18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH18" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="AI18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ18" s="1"/>
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C19" s="1">
+        <v>3</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="X19" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z19" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AA19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB19" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD19" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AE19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF19" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="AG19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH19" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="AI19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ19" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="W20" s="1" t="s">
         <v>195</v>
       </c>
+      <c r="X20" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z20" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AA20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB20" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD20" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AE20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF20" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="AG20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH20" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="AI20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ20" s="1" t="s">
+        <v>192</v>
+      </c>
     </row>
-    <row r="10" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C21" s="1">
         <v>3</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E10" t="s">
-        <v>77</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="E21" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="W21" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z21" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AA21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB21" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD21" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AE21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF21" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="AG21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH21" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="AI21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ21" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="G10" t="s">
-        <v>78</v>
-      </c>
-      <c r="H10" t="s">
-        <v>79</v>
-      </c>
-      <c r="I10" t="s">
-        <v>80</v>
-      </c>
-      <c r="J10" t="s">
-        <v>81</v>
-      </c>
-      <c r="K10" t="s">
-        <v>82</v>
-      </c>
-      <c r="L10" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA10" t="s">
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="W22" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="X22" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z22" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AA22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB22" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD22" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AE22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF22" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="AG22" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AB10" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC10" t="s">
+      <c r="AH22" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="AI22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ22" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C23" s="1">
+        <v>3</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1"/>
+      <c r="AD23" s="1"/>
+      <c r="AE23" s="1"/>
+      <c r="AF23" s="1"/>
+      <c r="AG23" s="1"/>
+      <c r="AH23" s="1"/>
+      <c r="AI23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ23" s="1"/>
+    </row>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C24" s="1">
+        <v>3</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z24" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="AA24" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AD10" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>87</v>
-      </c>
-      <c r="AG10" t="s">
+      <c r="AB24" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="AC24" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AH10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AI10" t="s">
-        <v>60</v>
-      </c>
-      <c r="AJ10" t="s">
-        <v>196</v>
-      </c>
+      <c r="AD24" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AE24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF24" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="AG24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH24" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AI24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ24" s="1"/>
     </row>
-    <row r="11" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C25" s="1">
         <v>3</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D25" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E11" t="s">
-        <v>77</v>
-      </c>
-      <c r="F11" t="s">
-        <v>192</v>
-      </c>
-      <c r="G11" t="s">
-        <v>89</v>
-      </c>
-      <c r="H11" t="s">
-        <v>79</v>
-      </c>
-      <c r="I11" t="s">
-        <v>90</v>
-      </c>
-      <c r="J11" t="s">
-        <v>91</v>
-      </c>
-      <c r="K11" t="s">
-        <v>92</v>
-      </c>
-      <c r="L11" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC11" t="s">
+      <c r="E25" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z25" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="AA25" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AD11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>87</v>
-      </c>
-      <c r="AG11" t="s">
+      <c r="AB25" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="AC25" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AH11" t="s">
-        <v>88</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AJ11" t="s">
-        <v>196</v>
-      </c>
+      <c r="AD25" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AE25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF25" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="AG25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH25" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AI25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ25" s="1"/>
     </row>
-    <row r="12" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>76</v>
-      </c>
-      <c r="B12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C26" s="1">
         <v>3</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D26" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E12" t="s">
-        <v>94</v>
-      </c>
-      <c r="F12" t="s">
-        <v>192</v>
-      </c>
-      <c r="G12" t="s">
-        <v>95</v>
-      </c>
-      <c r="H12" t="s">
-        <v>79</v>
-      </c>
-      <c r="I12" t="s">
-        <v>96</v>
-      </c>
-      <c r="J12" t="s">
-        <v>97</v>
-      </c>
-      <c r="K12" t="s">
-        <v>98</v>
-      </c>
-      <c r="L12" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC12" t="s">
+      <c r="E26" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z26" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="AA26" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AD12" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>87</v>
-      </c>
-      <c r="AG12" t="s">
+      <c r="AB26" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="AC26" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AH12" t="s">
-        <v>88</v>
-      </c>
-      <c r="AI12" t="s">
-        <v>60</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="13" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>76</v>
-      </c>
-      <c r="B13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13">
-        <v>3</v>
-      </c>
-      <c r="D13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" t="s">
-        <v>94</v>
-      </c>
-      <c r="F13" t="s">
-        <v>192</v>
-      </c>
-      <c r="G13" t="s">
-        <v>89</v>
-      </c>
-      <c r="H13" t="s">
-        <v>79</v>
-      </c>
-      <c r="I13" t="s">
-        <v>90</v>
-      </c>
-      <c r="J13" t="s">
-        <v>100</v>
-      </c>
-      <c r="K13" t="s">
-        <v>101</v>
-      </c>
-      <c r="L13" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC13" t="s">
+      <c r="AD26" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AE26" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AD13" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>87</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>88</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="14" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14">
-        <v>3</v>
-      </c>
-      <c r="D14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" t="s">
-        <v>94</v>
-      </c>
-      <c r="F14" t="s">
-        <v>192</v>
-      </c>
-      <c r="G14" t="s">
-        <v>78</v>
-      </c>
-      <c r="H14" t="s">
-        <v>79</v>
-      </c>
-      <c r="I14" t="s">
-        <v>80</v>
-      </c>
-      <c r="J14" t="s">
-        <v>103</v>
-      </c>
-      <c r="K14" t="s">
-        <v>104</v>
-      </c>
-      <c r="L14" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF14" t="s">
-        <v>87</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>88</v>
-      </c>
-      <c r="AI14" t="s">
-        <v>60</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="15" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>76</v>
-      </c>
-      <c r="B15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15">
-        <v>3</v>
-      </c>
-      <c r="D15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" t="s">
-        <v>77</v>
-      </c>
-      <c r="F15" t="s">
-        <v>192</v>
-      </c>
-      <c r="G15" t="s">
-        <v>95</v>
-      </c>
-      <c r="H15" t="s">
-        <v>79</v>
-      </c>
-      <c r="I15" t="s">
-        <v>96</v>
-      </c>
-      <c r="J15" t="s">
-        <v>106</v>
-      </c>
-      <c r="K15" t="s">
-        <v>107</v>
-      </c>
-      <c r="L15" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF15" t="s">
-        <v>87</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>88</v>
-      </c>
-      <c r="AI15" t="s">
-        <v>60</v>
-      </c>
-      <c r="AJ15" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="16" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>109</v>
-      </c>
-      <c r="B16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16">
-        <v>3</v>
-      </c>
-      <c r="D16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" t="s">
-        <v>110</v>
-      </c>
-      <c r="F16" t="s">
-        <v>192</v>
-      </c>
-      <c r="G16" t="s">
-        <v>111</v>
-      </c>
-      <c r="H16" t="s">
-        <v>112</v>
-      </c>
-      <c r="I16" t="s">
-        <v>113</v>
-      </c>
-      <c r="J16" t="s">
-        <v>35</v>
-      </c>
-      <c r="K16" t="s">
-        <v>114</v>
-      </c>
-      <c r="L16" t="s">
-        <v>114</v>
-      </c>
-      <c r="M16" t="s">
-        <v>115</v>
-      </c>
-      <c r="N16" t="s">
-        <v>75</v>
-      </c>
-      <c r="O16" t="s">
-        <v>92</v>
-      </c>
-      <c r="P16" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>117</v>
-      </c>
-      <c r="R16" t="s">
-        <v>118</v>
-      </c>
-      <c r="S16" t="s">
-        <v>119</v>
-      </c>
-      <c r="T16" t="s">
-        <v>120</v>
-      </c>
-      <c r="U16" t="s">
-        <v>121</v>
-      </c>
-      <c r="V16" t="s">
-        <v>100</v>
-      </c>
-      <c r="W16" t="s">
-        <v>122</v>
-      </c>
-      <c r="X16" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA16" t="s">
+      <c r="AF26" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="AG26" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AB16" t="s">
-        <v>125</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>126</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>127</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH16" t="s">
-        <v>128</v>
-      </c>
-      <c r="AI16" t="s">
+      <c r="AH26" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AI26" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AJ16" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="17" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>109</v>
-      </c>
-      <c r="B17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17">
-        <v>3</v>
-      </c>
-      <c r="D17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" t="s">
-        <v>129</v>
-      </c>
-      <c r="F17" t="s">
-        <v>192</v>
-      </c>
-      <c r="G17" t="s">
-        <v>111</v>
-      </c>
-      <c r="H17" t="s">
-        <v>112</v>
-      </c>
-      <c r="I17" t="s">
-        <v>113</v>
-      </c>
-      <c r="J17" t="s">
-        <v>35</v>
-      </c>
-      <c r="K17" t="s">
-        <v>114</v>
-      </c>
-      <c r="L17" t="s">
-        <v>114</v>
-      </c>
-      <c r="M17" t="s">
-        <v>115</v>
-      </c>
-      <c r="N17" t="s">
-        <v>130</v>
-      </c>
-      <c r="O17" t="s">
-        <v>131</v>
-      </c>
-      <c r="P17" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>117</v>
-      </c>
-      <c r="R17" t="s">
-        <v>133</v>
-      </c>
-      <c r="S17" t="s">
-        <v>134</v>
-      </c>
-      <c r="T17" t="s">
-        <v>135</v>
-      </c>
-      <c r="U17" t="s">
-        <v>121</v>
-      </c>
-      <c r="V17" t="s">
-        <v>136</v>
-      </c>
-      <c r="W17" t="s">
-        <v>137</v>
-      </c>
-      <c r="X17" t="s">
-        <v>138</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>126</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>140</v>
-      </c>
-      <c r="AG17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>128</v>
-      </c>
-      <c r="AI17" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="18" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>109</v>
-      </c>
-      <c r="B18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18">
-        <v>3</v>
-      </c>
-      <c r="D18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" t="s">
-        <v>141</v>
-      </c>
-      <c r="F18" t="s">
-        <v>192</v>
-      </c>
-      <c r="G18" t="s">
-        <v>111</v>
-      </c>
-      <c r="H18" t="s">
-        <v>112</v>
-      </c>
-      <c r="I18" t="s">
-        <v>113</v>
-      </c>
-      <c r="J18" t="s">
-        <v>35</v>
-      </c>
-      <c r="K18" t="s">
-        <v>114</v>
-      </c>
-      <c r="L18" t="s">
-        <v>114</v>
-      </c>
-      <c r="M18" t="s">
-        <v>115</v>
-      </c>
-      <c r="N18" t="s">
-        <v>119</v>
-      </c>
-      <c r="O18" t="s">
-        <v>142</v>
-      </c>
-      <c r="P18" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>117</v>
-      </c>
-      <c r="R18" t="s">
-        <v>143</v>
-      </c>
-      <c r="S18" t="s">
-        <v>144</v>
-      </c>
-      <c r="T18" t="s">
-        <v>145</v>
-      </c>
-      <c r="U18" t="s">
-        <v>121</v>
-      </c>
-      <c r="V18" t="s">
-        <v>146</v>
-      </c>
-      <c r="W18" t="s">
-        <v>147</v>
-      </c>
-      <c r="X18" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>148</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>126</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF18" t="s">
-        <v>140</v>
-      </c>
-      <c r="AG18" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH18" t="s">
-        <v>149</v>
-      </c>
-      <c r="AI18" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ18" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="19" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>109</v>
-      </c>
-      <c r="B19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19">
-        <v>3</v>
-      </c>
-      <c r="D19" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" t="s">
-        <v>150</v>
-      </c>
-      <c r="F19" t="s">
-        <v>192</v>
-      </c>
-      <c r="G19" t="s">
-        <v>111</v>
-      </c>
-      <c r="H19" t="s">
-        <v>151</v>
-      </c>
-      <c r="I19" t="s">
-        <v>113</v>
-      </c>
-      <c r="J19" t="s">
-        <v>35</v>
-      </c>
-      <c r="K19" t="s">
-        <v>114</v>
-      </c>
-      <c r="L19" t="s">
-        <v>114</v>
-      </c>
-      <c r="M19" t="s">
-        <v>152</v>
-      </c>
-      <c r="N19" t="s">
-        <v>153</v>
-      </c>
-      <c r="O19" t="s">
-        <v>154</v>
-      </c>
-      <c r="P19" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>156</v>
-      </c>
-      <c r="R19" t="s">
-        <v>157</v>
-      </c>
-      <c r="S19" t="s">
-        <v>158</v>
-      </c>
-      <c r="T19" t="s">
-        <v>159</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>160</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>126</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF19" t="s">
-        <v>140</v>
-      </c>
-      <c r="AG19" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH19" t="s">
-        <v>149</v>
-      </c>
-      <c r="AI19" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ19" t="s">
-        <v>195</v>
-      </c>
+      <c r="AJ26" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AJ19" xr:uid="{D28BD90C-3481-4D70-B9C6-8D5FD5AD9CEB}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Antimicrobial resistance"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AJ26" xr:uid="{EBB41B59-A517-4BDB-92C9-37C47EDBE916}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/datasets/distiller_casecontrol.xlsx
+++ b/datasets/distiller_casecontrol.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://michiganstate-my.sharepoint.com/personal/fonsec16_msu_edu/Documents/Documents/CAFO-July-2021/Update-Website-July-2021/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{68DC07F3-2F1F-4114-83F6-794B75125D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0A449FD-18E9-4F28-9B1E-202DF7DB99D8}"/>
+  <xr:revisionPtr revIDLastSave="142" documentId="8_{68DC07F3-2F1F-4114-83F6-794B75125D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6FA1B36-85EB-49F7-B727-83B3E87D8C31}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,12 +18,41 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AO$38</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={08244B5A-344F-437D-98F2-8655B82715AF}</author>
+  </authors>
+  <commentList>
+    <comment ref="D29" authorId="0" shapeId="0" xr:uid="{08244B5A-344F-437D-98F2-8655B82715AF}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    No information about controls and exposure can change in 17 years</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="375">
   <si>
     <t>Refid</t>
   </si>
@@ -473,9 +502,6 @@
   </si>
   <si>
     <t>14.5</t>
-  </si>
-  <si>
-    <t>32509233</t>
   </si>
   <si>
     <t>Other Effect measure</t>
@@ -1157,14 +1183,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1174,6 +1206,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1190,10 +1252,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1209,6 +1280,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Fonsecamartinez, Alex" id="{4B06CEFB-DB35-4EBD-A984-469F286E39A6}" userId="S::fonsec16@msu.edu::ad3b80e4-30ee-4dc1-8fff-b6e891d233c5" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1506,12 +1583,23 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="D29" dT="2022-10-06T17:01:49.81" personId="{4B06CEFB-DB35-4EBD-A984-469F286E39A6}" id="{08244B5A-344F-437D-98F2-8655B82715AF}">
+    <text>No information about controls and exposure can change in 17 years</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:AO40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A38"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection activeCell="A10" sqref="A10"/>
+      <selection pane="topRight" activeCell="D2" sqref="D2:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1635,26 +1723,26 @@
         <v>38</v>
       </c>
       <c r="AN1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AO1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:41" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C2" s="1">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="5" t="s">
         <v>43</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -1664,68 +1752,68 @@
         <v>48</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>105</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD2" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="AC2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF2" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="AE2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH2" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="AG2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="AI2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
+      <c r="AK2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL2" s="2" t="s">
         <v>325</v>
-      </c>
-      <c r="AK2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AL2" s="2" t="s">
-        <v>326</v>
       </c>
       <c r="AM2" s="1" t="s">
         <v>47</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="3" spans="1:41" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C3" s="1">
         <v>3</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="5" t="s">
         <v>43</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -1735,13 +1823,13 @@
         <v>45</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>329</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>330</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>125</v>
@@ -1750,53 +1838,53 @@
         <v>46</v>
       </c>
       <c r="AD3" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF3" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="AE3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF3" s="1" t="s">
+      <c r="AG3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH3" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="AG3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH3" s="1" t="s">
+      <c r="AI3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="AI3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
+      <c r="AK3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL3" s="2" t="s">
         <v>325</v>
-      </c>
-      <c r="AK3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AL3" s="2" t="s">
-        <v>326</v>
       </c>
       <c r="AM3" s="1" t="s">
         <v>47</v>
       </c>
       <c r="AN3" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="4" spans="1:41" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="5" t="s">
         <v>43</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -1806,13 +1894,13 @@
         <v>49</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>105</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>106</v>
@@ -1821,53 +1909,53 @@
         <v>46</v>
       </c>
       <c r="AD4" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF4" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="AE4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF4" s="1" t="s">
+      <c r="AG4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH4" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="AG4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH4" s="1" t="s">
+      <c r="AI4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="AI4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AJ4" s="1" t="s">
+      <c r="AK4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL4" s="2" t="s">
         <v>325</v>
-      </c>
-      <c r="AK4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AL4" s="2" t="s">
-        <v>326</v>
       </c>
       <c r="AM4" s="1" t="s">
         <v>47</v>
       </c>
       <c r="AN4" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:41" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C5" s="1">
         <v>3</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="5" t="s">
         <v>51</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -1877,77 +1965,77 @@
         <v>52</v>
       </c>
       <c r="I5" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>339</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>340</v>
       </c>
       <c r="AC5" s="1" t="s">
         <v>53</v>
       </c>
       <c r="AD5" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH5" s="1" t="s">
         <v>341</v>
-      </c>
-      <c r="AE5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH5" s="1" t="s">
-        <v>342</v>
       </c>
       <c r="AI5" s="1" t="s">
         <v>55</v>
       </c>
       <c r="AJ5" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL5" s="2" t="s">
         <v>343</v>
-      </c>
-      <c r="AK5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AL5" s="2" t="s">
-        <v>344</v>
       </c>
       <c r="AM5" s="1" t="s">
         <v>56</v>
       </c>
       <c r="AN5" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:41" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="5" t="s">
         <v>51</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -1957,35 +2045,35 @@
         <v>57</v>
       </c>
       <c r="I6" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>337</v>
-      </c>
       <c r="N6" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>68</v>
       </c>
       <c r="P6" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD6" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="AC6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD6" s="1" t="s">
-        <v>346</v>
-      </c>
       <c r="AE6" s="1" t="s">
         <v>46</v>
       </c>
@@ -1993,41 +2081,41 @@
         <v>54</v>
       </c>
       <c r="AH6" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AI6" s="1" t="s">
         <v>55</v>
       </c>
       <c r="AJ6" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AK6" s="2" t="s">
         <v>46</v>
       </c>
       <c r="AL6" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AM6" s="1" t="s">
         <v>47</v>
       </c>
       <c r="AN6" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="7" spans="1:41" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C7" s="1">
         <v>3</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="5" t="s">
         <v>51</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -2037,92 +2125,92 @@
         <v>58</v>
       </c>
       <c r="I7" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="O7" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="P7" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="Q7" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="R7" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="S7" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="T7" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="AC7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD7" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="AC7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD7" s="1" t="s">
+      <c r="AE7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF7" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="AE7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF7" s="1" t="s">
+      <c r="AG7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH7" s="1" t="s">
         <v>358</v>
-      </c>
-      <c r="AG7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH7" s="1" t="s">
-        <v>359</v>
       </c>
       <c r="AI7" s="1" t="s">
         <v>55</v>
       </c>
       <c r="AJ7" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AK7" s="2" t="s">
         <v>46</v>
       </c>
       <c r="AL7" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AM7" s="1" t="s">
         <v>47</v>
       </c>
       <c r="AN7" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="8" spans="1:41" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C8" s="1">
         <v>3</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="5" t="s">
         <v>51</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -2132,92 +2220,92 @@
         <v>59</v>
       </c>
       <c r="I8" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>349</v>
-      </c>
       <c r="N8" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="O8" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="P8" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="P8" s="1" t="s">
-        <v>362</v>
-      </c>
       <c r="Q8" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="R8" s="1" t="s">
         <v>92</v>
       </c>
       <c r="S8" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="T8" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="T8" s="1" t="s">
+      <c r="AC8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD8" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="AC8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD8" s="1" t="s">
+      <c r="AE8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF8" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="AE8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF8" s="1" t="s">
-        <v>366</v>
-      </c>
       <c r="AG8" s="1" t="s">
         <v>54</v>
       </c>
       <c r="AH8" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AI8" s="1" t="s">
         <v>55</v>
       </c>
       <c r="AJ8" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AK8" s="2" t="s">
         <v>46</v>
       </c>
       <c r="AL8" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AM8" s="1" t="s">
         <v>47</v>
       </c>
       <c r="AN8" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="9" spans="1:41" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C9" s="1">
         <v>3</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="5" t="s">
         <v>51</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -2227,83 +2315,83 @@
         <v>60</v>
       </c>
       <c r="H9" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="N9" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="N9" s="1" t="s">
+      <c r="O9" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="P9" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="P9" s="1" t="s">
-        <v>370</v>
-      </c>
       <c r="Q9" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="R9" s="1" t="s">
         <v>92</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="T9" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD9" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="AC9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD9" s="1" t="s">
+      <c r="AE9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF9" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="AE9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF9" s="1" t="s">
-        <v>373</v>
-      </c>
       <c r="AG9" s="1" t="s">
         <v>54</v>
       </c>
       <c r="AH9" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AI9" s="1" t="s">
         <v>55</v>
       </c>
       <c r="AJ9" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AK9" s="2" t="s">
         <v>46</v>
       </c>
       <c r="AL9" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AM9" s="1" t="s">
         <v>47</v>
       </c>
       <c r="AN9" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B10" t="s">
@@ -2312,10 +2400,10 @@
       <c r="C10">
         <v>3</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="4" t="s">
         <v>62</v>
       </c>
       <c r="F10" t="s">
@@ -2377,7 +2465,7 @@
       </c>
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="A11" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B11" t="s">
@@ -2386,10 +2474,10 @@
       <c r="C11">
         <v>3</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="4" t="s">
         <v>62</v>
       </c>
       <c r="F11" t="s">
@@ -2451,7 +2539,7 @@
       </c>
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="A12" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B12" t="s">
@@ -2460,10 +2548,10 @@
       <c r="C12">
         <v>3</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="4" t="s">
         <v>81</v>
       </c>
       <c r="F12" t="s">
@@ -2525,7 +2613,7 @@
       </c>
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="A13" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B13" t="s">
@@ -2534,10 +2622,10 @@
       <c r="C13">
         <v>3</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="4" t="s">
         <v>81</v>
       </c>
       <c r="F13" t="s">
@@ -2599,7 +2687,7 @@
       </c>
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="A14" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B14" t="s">
@@ -2608,10 +2696,10 @@
       <c r="C14">
         <v>3</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="4" t="s">
         <v>81</v>
       </c>
       <c r="F14" t="s">
@@ -2673,7 +2761,7 @@
       </c>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="A15" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B15" t="s">
@@ -2682,10 +2770,10 @@
       <c r="C15">
         <v>3</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="4" t="s">
         <v>62</v>
       </c>
       <c r="F15" t="s">
@@ -2747,7 +2835,7 @@
       </c>
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="A16" s="4" t="s">
         <v>96</v>
       </c>
       <c r="B16" t="s">
@@ -2756,10 +2844,10 @@
       <c r="C16">
         <v>3</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="4" t="s">
         <v>97</v>
       </c>
       <c r="F16" t="s">
@@ -2842,7 +2930,7 @@
       </c>
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="A17" s="4" t="s">
         <v>96</v>
       </c>
       <c r="B17" t="s">
@@ -2851,10 +2939,10 @@
       <c r="C17">
         <v>3</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="4" t="s">
         <v>112</v>
       </c>
       <c r="F17" t="s">
@@ -2937,7 +3025,7 @@
       </c>
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="A18" s="4" t="s">
         <v>96</v>
       </c>
       <c r="B18" t="s">
@@ -2946,10 +3034,10 @@
       <c r="C18">
         <v>3</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="4" t="s">
         <v>112</v>
       </c>
       <c r="F18" t="s">
@@ -3032,7 +3120,7 @@
       </c>
     </row>
     <row r="19" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="A19" s="4" t="s">
         <v>96</v>
       </c>
       <c r="B19" t="s">
@@ -3041,10 +3129,10 @@
       <c r="C19">
         <v>3</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="4" t="s">
         <v>112</v>
       </c>
       <c r="F19" t="s">
@@ -3142,8 +3230,8 @@
       </c>
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>96</v>
+      <c r="A20" s="4">
+        <v>32508518</v>
       </c>
       <c r="B20" t="s">
         <v>41</v>
@@ -3151,10 +3239,10 @@
       <c r="C20">
         <v>3</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="4" t="s">
         <v>112</v>
       </c>
       <c r="F20" t="s">
@@ -3252,7 +3340,7 @@
       </c>
     </row>
     <row r="21" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="A21" s="4" t="s">
         <v>96</v>
       </c>
       <c r="B21" t="s">
@@ -3261,10 +3349,10 @@
       <c r="C21">
         <v>3</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="4" t="s">
         <v>112</v>
       </c>
       <c r="F21" t="s">
@@ -3362,7 +3450,7 @@
       </c>
     </row>
     <row r="22" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="A22" s="4" t="s">
         <v>96</v>
       </c>
       <c r="B22" t="s">
@@ -3371,10 +3459,10 @@
       <c r="C22">
         <v>3</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="4" t="s">
         <v>112</v>
       </c>
       <c r="F22" t="s">
@@ -3471,9 +3559,9 @@
         <v>138</v>
       </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>150</v>
+    <row r="23" spans="1:41" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>32509233</v>
       </c>
       <c r="B23" t="s">
         <v>41</v>
@@ -3482,259 +3570,259 @@
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AM23" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A24">
+    <row r="24" spans="1:41" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="10">
         <v>32509257</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="10">
         <v>3</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E24" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="L24" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="M24" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="K24" t="s">
+      <c r="N24" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="O24" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="P24" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q24" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="R24" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="S24" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="T24" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="U24" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="V24" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="W24" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="X24" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y24" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z24" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="AA24" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="AB24" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC24" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD24" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="AE24" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF24" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="AG24" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH24" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="AI24" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ24" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="AK24" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL24" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="AM24" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO24" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="25" spans="1:41" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="10">
+        <v>3</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="K25" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="L24" t="s">
+      <c r="L25" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="M24" t="s">
-        <v>160</v>
-      </c>
-      <c r="N24" t="s">
+      <c r="M25" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="N25" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="O25" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="P25" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q25" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="R25" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="S25" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="T25" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="U25" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="V25" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="W25" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="X25" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y25" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z25" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="O24" t="s">
+      <c r="AA25" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB25" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="P24" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>163</v>
-      </c>
-      <c r="R24" t="s">
-        <v>164</v>
-      </c>
-      <c r="S24" t="s">
-        <v>165</v>
-      </c>
-      <c r="T24" t="s">
-        <v>159</v>
-      </c>
-      <c r="U24" t="s">
-        <v>166</v>
-      </c>
-      <c r="V24" t="s">
-        <v>144</v>
-      </c>
-      <c r="W24" t="s">
-        <v>167</v>
-      </c>
-      <c r="X24" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>169</v>
-      </c>
-      <c r="AA24" t="s">
+      <c r="AC25" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD25" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="AB24" t="s">
-        <v>137</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD24" t="s">
+      <c r="AE25" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF25" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="AE24" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF24" t="s">
+      <c r="AG25" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH25" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="AI25" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ25" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="AG24" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH24" t="s">
-        <v>172</v>
-      </c>
-      <c r="AI24" t="s">
-        <v>46</v>
-      </c>
-      <c r="AJ24" t="s">
+      <c r="AK25" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL25" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="AK24" t="s">
-        <v>54</v>
-      </c>
-      <c r="AL24" t="s">
-        <v>174</v>
-      </c>
-      <c r="AM24" t="s">
+      <c r="AM25" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="AO24" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>152</v>
-      </c>
-      <c r="B25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25">
-        <v>3</v>
-      </c>
-      <c r="D25" t="s">
-        <v>153</v>
-      </c>
-      <c r="E25" t="s">
-        <v>154</v>
-      </c>
-      <c r="F25" t="s">
-        <v>155</v>
-      </c>
-      <c r="G25" t="s">
-        <v>156</v>
-      </c>
-      <c r="H25" t="s">
-        <v>176</v>
-      </c>
-      <c r="I25" t="s">
-        <v>177</v>
-      </c>
-      <c r="J25" t="s">
-        <v>159</v>
-      </c>
-      <c r="K25" t="s">
-        <v>101</v>
-      </c>
-      <c r="L25" t="s">
-        <v>101</v>
-      </c>
-      <c r="M25" t="s">
-        <v>178</v>
-      </c>
-      <c r="N25" t="s">
-        <v>144</v>
-      </c>
-      <c r="O25" t="s">
-        <v>165</v>
-      </c>
-      <c r="P25" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>179</v>
-      </c>
-      <c r="R25" t="s">
-        <v>180</v>
-      </c>
-      <c r="S25" t="s">
-        <v>181</v>
-      </c>
-      <c r="T25" t="s">
-        <v>182</v>
-      </c>
-      <c r="U25" t="s">
-        <v>183</v>
-      </c>
-      <c r="V25" t="s">
-        <v>184</v>
-      </c>
-      <c r="W25" t="s">
-        <v>185</v>
-      </c>
-      <c r="X25" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y25" t="s">
+      <c r="AO25" s="10" t="s">
         <v>186</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>133</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>145</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>162</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD25" t="s">
-        <v>171</v>
-      </c>
-      <c r="AE25" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF25" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG25" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH25" t="s">
-        <v>172</v>
-      </c>
-      <c r="AI25" t="s">
-        <v>46</v>
-      </c>
-      <c r="AJ25" t="s">
-        <v>173</v>
-      </c>
-      <c r="AK25" t="s">
-        <v>54</v>
-      </c>
-      <c r="AL25" t="s">
-        <v>174</v>
-      </c>
-      <c r="AM25" t="s">
-        <v>47</v>
-      </c>
-      <c r="AO25" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>188</v>
+      <c r="A26" s="4" t="s">
+        <v>187</v>
       </c>
       <c r="B26" t="s">
         <v>41</v>
@@ -3742,29 +3830,29 @@
       <c r="C26">
         <v>3</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="F26" t="s">
+        <v>374</v>
+      </c>
+      <c r="G26" t="s">
         <v>189</v>
       </c>
-      <c r="F26" t="s">
-        <v>375</v>
-      </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>190</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>191</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>192</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>193</v>
-      </c>
-      <c r="K26" t="s">
-        <v>194</v>
       </c>
       <c r="L26" t="s">
         <v>136</v>
@@ -3773,39 +3861,39 @@
         <v>46</v>
       </c>
       <c r="AD26" t="s">
+        <v>194</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF26" t="s">
         <v>195</v>
       </c>
-      <c r="AE26" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF26" t="s">
+      <c r="AG26" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH26" t="s">
         <v>196</v>
       </c>
-      <c r="AG26" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH26" t="s">
+      <c r="AI26" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ26" t="s">
         <v>197</v>
-      </c>
-      <c r="AI26" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ26" t="s">
-        <v>198</v>
       </c>
       <c r="AK26" t="s">
         <v>55</v>
       </c>
       <c r="AL26" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AM26" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>188</v>
+      <c r="A27" s="4" t="s">
+        <v>187</v>
       </c>
       <c r="B27" t="s">
         <v>41</v>
@@ -3813,70 +3901,70 @@
       <c r="C27">
         <v>3</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="F27" t="s">
+        <v>374</v>
+      </c>
+      <c r="G27" t="s">
+        <v>189</v>
+      </c>
+      <c r="H27" t="s">
+        <v>190</v>
+      </c>
+      <c r="I27" t="s">
+        <v>191</v>
+      </c>
+      <c r="J27" t="s">
         <v>200</v>
-      </c>
-      <c r="F27" t="s">
-        <v>375</v>
-      </c>
-      <c r="G27" t="s">
-        <v>190</v>
-      </c>
-      <c r="H27" t="s">
-        <v>191</v>
-      </c>
-      <c r="I27" t="s">
-        <v>192</v>
-      </c>
-      <c r="J27" t="s">
-        <v>201</v>
       </c>
       <c r="K27" t="s">
         <v>105</v>
       </c>
       <c r="L27" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AC27" t="s">
         <v>46</v>
       </c>
       <c r="AD27" t="s">
+        <v>194</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF27" t="s">
         <v>195</v>
       </c>
-      <c r="AE27" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF27" t="s">
+      <c r="AG27" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH27" t="s">
         <v>196</v>
       </c>
-      <c r="AG27" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH27" t="s">
+      <c r="AI27" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ27" t="s">
         <v>197</v>
-      </c>
-      <c r="AI27" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ27" t="s">
-        <v>198</v>
       </c>
       <c r="AK27" t="s">
         <v>55</v>
       </c>
       <c r="AL27" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AM27" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>188</v>
+      <c r="A28" s="4" t="s">
+        <v>187</v>
       </c>
       <c r="B28" t="s">
         <v>41</v>
@@ -3884,70 +3972,70 @@
       <c r="C28">
         <v>3</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="F28" t="s">
+        <v>374</v>
+      </c>
+      <c r="G28" t="s">
+        <v>189</v>
+      </c>
+      <c r="H28" t="s">
         <v>203</v>
       </c>
-      <c r="F28" t="s">
-        <v>375</v>
-      </c>
-      <c r="G28" t="s">
-        <v>190</v>
-      </c>
-      <c r="H28" t="s">
-        <v>204</v>
-      </c>
       <c r="I28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J28" t="s">
         <v>116</v>
       </c>
       <c r="K28" t="s">
+        <v>204</v>
+      </c>
+      <c r="L28" t="s">
         <v>205</v>
       </c>
-      <c r="L28" t="s">
-        <v>206</v>
-      </c>
       <c r="AC28" t="s">
         <v>46</v>
       </c>
       <c r="AD28" t="s">
+        <v>194</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF28" t="s">
         <v>195</v>
       </c>
-      <c r="AE28" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF28" t="s">
+      <c r="AG28" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH28" t="s">
         <v>196</v>
       </c>
-      <c r="AG28" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH28" t="s">
+      <c r="AI28" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ28" t="s">
         <v>197</v>
-      </c>
-      <c r="AI28" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ28" t="s">
-        <v>198</v>
       </c>
       <c r="AK28" t="s">
         <v>55</v>
       </c>
       <c r="AL28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AM28" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>207</v>
+      <c r="A29" s="3">
+        <v>32511496</v>
       </c>
       <c r="B29" t="s">
         <v>41</v>
@@ -3955,109 +4043,109 @@
       <c r="C29">
         <v>3</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="F29" t="s">
+        <v>374</v>
+      </c>
+      <c r="G29" t="s">
         <v>208</v>
       </c>
-      <c r="F29" t="s">
-        <v>375</v>
-      </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>209</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>210</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>211</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>212</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>213</v>
       </c>
-      <c r="L29" t="s">
+      <c r="M29" t="s">
         <v>214</v>
       </c>
-      <c r="M29" t="s">
+      <c r="N29" t="s">
         <v>215</v>
       </c>
-      <c r="N29" t="s">
+      <c r="O29" t="s">
         <v>216</v>
       </c>
-      <c r="O29" t="s">
+      <c r="P29" t="s">
         <v>217</v>
       </c>
-      <c r="P29" t="s">
+      <c r="Q29" t="s">
         <v>218</v>
       </c>
-      <c r="Q29" t="s">
+      <c r="R29" t="s">
         <v>219</v>
       </c>
-      <c r="R29" t="s">
+      <c r="S29" t="s">
         <v>220</v>
       </c>
-      <c r="S29" t="s">
+      <c r="T29" t="s">
         <v>221</v>
       </c>
-      <c r="T29" t="s">
+      <c r="U29" t="s">
         <v>222</v>
       </c>
-      <c r="U29" t="s">
+      <c r="V29" t="s">
         <v>223</v>
       </c>
-      <c r="V29" t="s">
+      <c r="W29" t="s">
         <v>224</v>
       </c>
-      <c r="W29" t="s">
+      <c r="X29" t="s">
         <v>225</v>
-      </c>
-      <c r="X29" t="s">
-        <v>226</v>
       </c>
       <c r="AC29" t="s">
         <v>55</v>
       </c>
       <c r="AD29" t="s">
+        <v>226</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF29" t="s">
         <v>227</v>
       </c>
-      <c r="AE29" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF29" t="s">
+      <c r="AG29" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH29" t="s">
         <v>228</v>
       </c>
-      <c r="AG29" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH29" t="s">
+      <c r="AI29" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ29" t="s">
         <v>229</v>
       </c>
-      <c r="AI29" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ29" t="s">
+      <c r="AK29" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL29" t="s">
         <v>230</v>
-      </c>
-      <c r="AK29" t="s">
-        <v>54</v>
-      </c>
-      <c r="AL29" t="s">
-        <v>231</v>
       </c>
       <c r="AM29" t="s">
         <v>47</v>
       </c>
       <c r="AN29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="30" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>207</v>
+      <c r="A30" s="3" t="s">
+        <v>206</v>
       </c>
       <c r="B30" t="s">
         <v>41</v>
@@ -4065,109 +4153,109 @@
       <c r="C30">
         <v>3</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="F30" t="s">
         <v>233</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
+        <v>208</v>
+      </c>
+      <c r="H30" t="s">
+        <v>209</v>
+      </c>
+      <c r="I30" t="s">
+        <v>210</v>
+      </c>
+      <c r="J30" t="s">
         <v>234</v>
       </c>
-      <c r="G30" t="s">
-        <v>209</v>
-      </c>
-      <c r="H30" t="s">
-        <v>210</v>
-      </c>
-      <c r="I30" t="s">
-        <v>211</v>
-      </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>235</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L30" t="s">
         <v>236</v>
       </c>
-      <c r="L30" t="s">
+      <c r="M30" t="s">
+        <v>214</v>
+      </c>
+      <c r="N30" t="s">
         <v>237</v>
       </c>
-      <c r="M30" t="s">
-        <v>215</v>
-      </c>
-      <c r="N30" t="s">
+      <c r="O30" t="s">
         <v>238</v>
       </c>
-      <c r="O30" t="s">
+      <c r="P30" t="s">
         <v>239</v>
       </c>
-      <c r="P30" t="s">
+      <c r="Q30" t="s">
+        <v>218</v>
+      </c>
+      <c r="R30" t="s">
         <v>240</v>
       </c>
-      <c r="Q30" t="s">
-        <v>219</v>
-      </c>
-      <c r="R30" t="s">
+      <c r="S30" t="s">
         <v>241</v>
       </c>
-      <c r="S30" t="s">
+      <c r="T30" t="s">
         <v>242</v>
       </c>
-      <c r="T30" t="s">
+      <c r="U30" t="s">
+        <v>222</v>
+      </c>
+      <c r="V30" t="s">
         <v>243</v>
       </c>
-      <c r="U30" t="s">
-        <v>223</v>
-      </c>
-      <c r="V30" t="s">
+      <c r="W30" t="s">
         <v>244</v>
       </c>
-      <c r="W30" t="s">
-        <v>245</v>
-      </c>
       <c r="X30" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AC30" t="s">
         <v>55</v>
       </c>
       <c r="AD30" t="s">
+        <v>226</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF30" t="s">
         <v>227</v>
       </c>
-      <c r="AE30" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF30" t="s">
+      <c r="AG30" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH30" t="s">
         <v>228</v>
       </c>
-      <c r="AG30" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH30" t="s">
+      <c r="AI30" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ30" t="s">
         <v>229</v>
-      </c>
-      <c r="AI30" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ30" t="s">
-        <v>230</v>
       </c>
       <c r="AK30" t="s">
         <v>55</v>
       </c>
       <c r="AL30" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AM30" t="s">
         <v>47</v>
       </c>
       <c r="AN30" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="31" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>207</v>
+      <c r="A31" s="3">
+        <v>32511496</v>
       </c>
       <c r="B31" t="s">
         <v>41</v>
@@ -4175,97 +4263,97 @@
       <c r="C31">
         <v>3</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="F31" t="s">
         <v>233</v>
       </c>
-      <c r="F31" t="s">
-        <v>234</v>
-      </c>
       <c r="G31" t="s">
+        <v>246</v>
+      </c>
+      <c r="H31" t="s">
+        <v>209</v>
+      </c>
+      <c r="I31" t="s">
         <v>247</v>
       </c>
-      <c r="H31" t="s">
-        <v>210</v>
-      </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>248</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>249</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
         <v>250</v>
       </c>
-      <c r="L31" t="s">
+      <c r="M31" t="s">
         <v>251</v>
       </c>
-      <c r="M31" t="s">
+      <c r="N31" t="s">
         <v>252</v>
       </c>
-      <c r="N31" t="s">
+      <c r="O31" t="s">
         <v>253</v>
       </c>
-      <c r="O31" t="s">
+      <c r="P31" t="s">
         <v>254</v>
       </c>
-      <c r="P31" t="s">
+      <c r="Q31" t="s">
         <v>255</v>
       </c>
-      <c r="Q31" t="s">
+      <c r="R31" t="s">
         <v>256</v>
       </c>
-      <c r="R31" t="s">
+      <c r="S31" t="s">
         <v>257</v>
       </c>
-      <c r="S31" t="s">
+      <c r="T31" t="s">
         <v>258</v>
-      </c>
-      <c r="T31" t="s">
-        <v>259</v>
       </c>
       <c r="AC31" t="s">
         <v>55</v>
       </c>
       <c r="AD31" t="s">
+        <v>226</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF31" t="s">
         <v>227</v>
       </c>
-      <c r="AE31" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF31" t="s">
+      <c r="AG31" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH31" t="s">
         <v>228</v>
       </c>
-      <c r="AG31" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH31" t="s">
+      <c r="AI31" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ31" t="s">
         <v>229</v>
-      </c>
-      <c r="AI31" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ31" t="s">
-        <v>230</v>
       </c>
       <c r="AK31" t="s">
         <v>55</v>
       </c>
       <c r="AL31" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AM31" t="s">
         <v>47</v>
       </c>
       <c r="AN31" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="32" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>207</v>
+      <c r="A32" s="3" t="s">
+        <v>206</v>
       </c>
       <c r="B32" t="s">
         <v>41</v>
@@ -4273,109 +4361,109 @@
       <c r="C32">
         <v>3</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F32" t="s">
+        <v>374</v>
+      </c>
+      <c r="G32" t="s">
+        <v>208</v>
+      </c>
+      <c r="H32" t="s">
+        <v>209</v>
+      </c>
+      <c r="I32" t="s">
+        <v>210</v>
+      </c>
+      <c r="J32" t="s">
         <v>260</v>
       </c>
-      <c r="F32" t="s">
-        <v>375</v>
-      </c>
-      <c r="G32" t="s">
-        <v>209</v>
-      </c>
-      <c r="H32" t="s">
-        <v>210</v>
-      </c>
-      <c r="I32" t="s">
-        <v>211</v>
-      </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>261</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
         <v>262</v>
       </c>
-      <c r="L32" t="s">
+      <c r="M32" t="s">
+        <v>214</v>
+      </c>
+      <c r="N32" t="s">
+        <v>215</v>
+      </c>
+      <c r="O32" t="s">
         <v>263</v>
       </c>
-      <c r="M32" t="s">
-        <v>215</v>
-      </c>
-      <c r="N32" t="s">
-        <v>216</v>
-      </c>
-      <c r="O32" t="s">
+      <c r="P32" t="s">
         <v>264</v>
       </c>
-      <c r="P32" t="s">
+      <c r="Q32" t="s">
+        <v>218</v>
+      </c>
+      <c r="R32" t="s">
         <v>265</v>
       </c>
-      <c r="Q32" t="s">
-        <v>219</v>
-      </c>
-      <c r="R32" t="s">
+      <c r="S32" t="s">
         <v>266</v>
       </c>
-      <c r="S32" t="s">
+      <c r="T32" t="s">
         <v>267</v>
       </c>
-      <c r="T32" t="s">
+      <c r="U32" t="s">
+        <v>222</v>
+      </c>
+      <c r="V32" t="s">
+        <v>250</v>
+      </c>
+      <c r="W32" t="s">
         <v>268</v>
       </c>
-      <c r="U32" t="s">
-        <v>223</v>
-      </c>
-      <c r="V32" t="s">
-        <v>251</v>
-      </c>
-      <c r="W32" t="s">
+      <c r="X32" t="s">
         <v>269</v>
-      </c>
-      <c r="X32" t="s">
-        <v>270</v>
       </c>
       <c r="AC32" t="s">
         <v>55</v>
       </c>
       <c r="AD32" t="s">
+        <v>226</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF32" t="s">
         <v>227</v>
       </c>
-      <c r="AE32" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF32" t="s">
+      <c r="AG32" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH32" t="s">
         <v>228</v>
       </c>
-      <c r="AG32" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH32" t="s">
+      <c r="AI32" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ32" t="s">
         <v>229</v>
-      </c>
-      <c r="AI32" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ32" t="s">
-        <v>230</v>
       </c>
       <c r="AK32" t="s">
         <v>55</v>
       </c>
       <c r="AL32" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AM32" t="s">
         <v>47</v>
       </c>
       <c r="AN32" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>207</v>
+      <c r="A33" s="3" t="s">
+        <v>206</v>
       </c>
       <c r="B33" t="s">
         <v>41</v>
@@ -4383,97 +4471,97 @@
       <c r="C33">
         <v>3</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E33" t="s">
-        <v>260</v>
+      <c r="E33" s="4" t="s">
+        <v>259</v>
       </c>
       <c r="F33" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G33" t="s">
+        <v>246</v>
+      </c>
+      <c r="H33" t="s">
+        <v>209</v>
+      </c>
+      <c r="I33" t="s">
         <v>247</v>
       </c>
-      <c r="H33" t="s">
-        <v>210</v>
-      </c>
-      <c r="I33" t="s">
-        <v>248</v>
-      </c>
       <c r="J33" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K33" t="s">
+        <v>254</v>
+      </c>
+      <c r="L33" t="s">
+        <v>270</v>
+      </c>
+      <c r="M33" t="s">
+        <v>251</v>
+      </c>
+      <c r="N33" t="s">
+        <v>250</v>
+      </c>
+      <c r="O33" t="s">
+        <v>271</v>
+      </c>
+      <c r="P33" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q33" t="s">
         <v>255</v>
       </c>
-      <c r="L33" t="s">
+      <c r="R33" t="s">
+        <v>270</v>
+      </c>
+      <c r="S33" t="s">
         <v>271</v>
       </c>
-      <c r="M33" t="s">
-        <v>252</v>
-      </c>
-      <c r="N33" t="s">
-        <v>251</v>
-      </c>
-      <c r="O33" t="s">
+      <c r="T33" t="s">
         <v>272</v>
-      </c>
-      <c r="P33" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>256</v>
-      </c>
-      <c r="R33" t="s">
-        <v>271</v>
-      </c>
-      <c r="S33" t="s">
-        <v>272</v>
-      </c>
-      <c r="T33" t="s">
-        <v>273</v>
       </c>
       <c r="AC33" t="s">
         <v>55</v>
       </c>
       <c r="AD33" t="s">
+        <v>226</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF33" t="s">
         <v>227</v>
       </c>
-      <c r="AE33" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF33" t="s">
+      <c r="AG33" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH33" t="s">
         <v>228</v>
       </c>
-      <c r="AG33" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH33" t="s">
+      <c r="AI33" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ33" t="s">
         <v>229</v>
-      </c>
-      <c r="AI33" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ33" t="s">
-        <v>230</v>
       </c>
       <c r="AK33" t="s">
         <v>55</v>
       </c>
       <c r="AL33" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AM33" t="s">
         <v>47</v>
       </c>
       <c r="AN33" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="34" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>207</v>
+      <c r="A34" s="3" t="s">
+        <v>206</v>
       </c>
       <c r="B34" t="s">
         <v>41</v>
@@ -4481,97 +4569,97 @@
       <c r="C34">
         <v>3</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E34" t="s">
-        <v>208</v>
+      <c r="E34" s="4" t="s">
+        <v>207</v>
       </c>
       <c r="F34" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G34" t="s">
+        <v>246</v>
+      </c>
+      <c r="H34" t="s">
+        <v>209</v>
+      </c>
+      <c r="I34" t="s">
         <v>247</v>
       </c>
-      <c r="H34" t="s">
-        <v>210</v>
-      </c>
-      <c r="I34" t="s">
-        <v>248</v>
-      </c>
       <c r="J34" t="s">
+        <v>273</v>
+      </c>
+      <c r="K34" t="s">
         <v>274</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34" t="s">
         <v>275</v>
       </c>
-      <c r="L34" t="s">
+      <c r="M34" t="s">
+        <v>251</v>
+      </c>
+      <c r="N34" t="s">
         <v>276</v>
       </c>
-      <c r="M34" t="s">
-        <v>252</v>
-      </c>
-      <c r="N34" t="s">
+      <c r="O34" t="s">
         <v>277</v>
       </c>
-      <c r="O34" t="s">
+      <c r="P34" t="s">
         <v>278</v>
       </c>
-      <c r="P34" t="s">
+      <c r="Q34" t="s">
+        <v>255</v>
+      </c>
+      <c r="R34" t="s">
         <v>279</v>
       </c>
-      <c r="Q34" t="s">
-        <v>256</v>
-      </c>
-      <c r="R34" t="s">
+      <c r="S34" t="s">
         <v>280</v>
       </c>
-      <c r="S34" t="s">
+      <c r="T34" t="s">
         <v>281</v>
-      </c>
-      <c r="T34" t="s">
-        <v>282</v>
       </c>
       <c r="AC34" t="s">
         <v>55</v>
       </c>
       <c r="AD34" t="s">
+        <v>226</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF34" t="s">
         <v>227</v>
       </c>
-      <c r="AE34" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF34" t="s">
+      <c r="AG34" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH34" t="s">
         <v>228</v>
       </c>
-      <c r="AG34" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH34" t="s">
+      <c r="AI34" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ34" t="s">
         <v>229</v>
       </c>
-      <c r="AI34" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ34" t="s">
-        <v>230</v>
-      </c>
       <c r="AK34" t="s">
         <v>54</v>
       </c>
       <c r="AL34" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AM34" t="s">
         <v>47</v>
       </c>
       <c r="AN34" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="35" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>207</v>
+      <c r="A35" s="3" t="s">
+        <v>206</v>
       </c>
       <c r="B35" t="s">
         <v>41</v>
@@ -4579,106 +4667,106 @@
       <c r="C35">
         <v>3</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="F35" t="s">
         <v>284</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
+        <v>208</v>
+      </c>
+      <c r="H35" t="s">
+        <v>209</v>
+      </c>
+      <c r="I35" t="s">
+        <v>210</v>
+      </c>
+      <c r="J35" t="s">
         <v>285</v>
       </c>
-      <c r="G35" t="s">
-        <v>209</v>
-      </c>
-      <c r="H35" t="s">
-        <v>210</v>
-      </c>
-      <c r="I35" t="s">
-        <v>211</v>
-      </c>
-      <c r="J35" t="s">
+      <c r="K35" t="s">
         <v>286</v>
       </c>
-      <c r="K35" t="s">
+      <c r="L35" t="s">
         <v>287</v>
       </c>
-      <c r="L35" t="s">
+      <c r="M35" t="s">
+        <v>214</v>
+      </c>
+      <c r="N35" t="s">
+        <v>264</v>
+      </c>
+      <c r="O35" t="s">
         <v>288</v>
       </c>
-      <c r="M35" t="s">
-        <v>215</v>
-      </c>
-      <c r="N35" t="s">
-        <v>265</v>
-      </c>
-      <c r="O35" t="s">
+      <c r="P35" t="s">
         <v>289</v>
       </c>
-      <c r="P35" t="s">
+      <c r="Q35" t="s">
+        <v>218</v>
+      </c>
+      <c r="R35" t="s">
+        <v>261</v>
+      </c>
+      <c r="S35" t="s">
         <v>290</v>
       </c>
-      <c r="Q35" t="s">
-        <v>219</v>
-      </c>
-      <c r="R35" t="s">
-        <v>262</v>
-      </c>
-      <c r="S35" t="s">
+      <c r="T35" t="s">
         <v>291</v>
       </c>
-      <c r="T35" t="s">
+      <c r="U35" t="s">
+        <v>222</v>
+      </c>
+      <c r="V35" t="s">
         <v>292</v>
       </c>
-      <c r="U35" t="s">
-        <v>223</v>
-      </c>
-      <c r="V35" t="s">
+      <c r="W35" t="s">
         <v>293</v>
       </c>
-      <c r="W35" t="s">
+      <c r="X35" t="s">
         <v>294</v>
-      </c>
-      <c r="X35" t="s">
-        <v>295</v>
       </c>
       <c r="AC35" t="s">
         <v>55</v>
       </c>
       <c r="AD35" t="s">
+        <v>226</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF35" t="s">
         <v>227</v>
       </c>
-      <c r="AE35" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF35" t="s">
+      <c r="AG35" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH35" t="s">
         <v>228</v>
       </c>
-      <c r="AG35" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH35" t="s">
+      <c r="AI35" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ35" t="s">
         <v>229</v>
       </c>
-      <c r="AI35" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ35" t="s">
-        <v>230</v>
-      </c>
       <c r="AL35" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AM35" t="s">
         <v>47</v>
       </c>
       <c r="AN35" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="36" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>207</v>
+      <c r="A36" s="3" t="s">
+        <v>206</v>
       </c>
       <c r="B36" t="s">
         <v>41</v>
@@ -4686,94 +4774,94 @@
       <c r="C36">
         <v>3</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="F36" t="s">
         <v>284</v>
       </c>
-      <c r="F36" t="s">
-        <v>285</v>
-      </c>
       <c r="G36" t="s">
+        <v>246</v>
+      </c>
+      <c r="H36" t="s">
+        <v>209</v>
+      </c>
+      <c r="I36" t="s">
         <v>247</v>
       </c>
-      <c r="H36" t="s">
-        <v>210</v>
-      </c>
-      <c r="I36" t="s">
-        <v>248</v>
-      </c>
       <c r="J36" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K36" t="s">
+        <v>296</v>
+      </c>
+      <c r="L36" t="s">
         <v>297</v>
       </c>
-      <c r="L36" t="s">
+      <c r="M36" t="s">
+        <v>251</v>
+      </c>
+      <c r="N36" t="s">
+        <v>260</v>
+      </c>
+      <c r="O36" t="s">
         <v>298</v>
       </c>
-      <c r="M36" t="s">
-        <v>252</v>
-      </c>
-      <c r="N36" t="s">
-        <v>261</v>
-      </c>
-      <c r="O36" t="s">
+      <c r="P36" t="s">
         <v>299</v>
       </c>
-      <c r="P36" t="s">
+      <c r="Q36" t="s">
+        <v>255</v>
+      </c>
+      <c r="R36" t="s">
         <v>300</v>
       </c>
-      <c r="Q36" t="s">
-        <v>256</v>
-      </c>
-      <c r="R36" t="s">
+      <c r="S36" t="s">
         <v>301</v>
       </c>
-      <c r="S36" t="s">
+      <c r="T36" t="s">
         <v>302</v>
-      </c>
-      <c r="T36" t="s">
-        <v>303</v>
       </c>
       <c r="AC36" t="s">
         <v>55</v>
       </c>
       <c r="AD36" t="s">
+        <v>226</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF36" t="s">
         <v>227</v>
       </c>
-      <c r="AE36" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF36" t="s">
+      <c r="AG36" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH36" t="s">
         <v>228</v>
       </c>
-      <c r="AG36" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH36" t="s">
+      <c r="AI36" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ36" t="s">
         <v>229</v>
       </c>
-      <c r="AI36" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ36" t="s">
-        <v>230</v>
-      </c>
       <c r="AL36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AM36" t="s">
         <v>47</v>
       </c>
       <c r="AN36" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="37" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>207</v>
+      <c r="A37" s="3">
+        <v>32511496</v>
       </c>
       <c r="B37" t="s">
         <v>41</v>
@@ -4781,106 +4869,106 @@
       <c r="C37">
         <v>3</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="F37" t="s">
         <v>305</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
+        <v>208</v>
+      </c>
+      <c r="H37" t="s">
+        <v>209</v>
+      </c>
+      <c r="I37" t="s">
+        <v>210</v>
+      </c>
+      <c r="J37" t="s">
+        <v>266</v>
+      </c>
+      <c r="K37" t="s">
         <v>306</v>
       </c>
-      <c r="G37" t="s">
-        <v>209</v>
-      </c>
-      <c r="H37" t="s">
-        <v>210</v>
-      </c>
-      <c r="I37" t="s">
-        <v>211</v>
-      </c>
-      <c r="J37" t="s">
-        <v>267</v>
-      </c>
-      <c r="K37" t="s">
+      <c r="L37" t="s">
+        <v>260</v>
+      </c>
+      <c r="M37" t="s">
+        <v>214</v>
+      </c>
+      <c r="N37" t="s">
+        <v>239</v>
+      </c>
+      <c r="O37" t="s">
         <v>307</v>
       </c>
-      <c r="L37" t="s">
-        <v>261</v>
-      </c>
-      <c r="M37" t="s">
-        <v>215</v>
-      </c>
-      <c r="N37" t="s">
-        <v>240</v>
-      </c>
-      <c r="O37" t="s">
+      <c r="P37" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>218</v>
+      </c>
+      <c r="R37" t="s">
+        <v>271</v>
+      </c>
+      <c r="S37" t="s">
         <v>308</v>
       </c>
-      <c r="P37" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q37" t="s">
+      <c r="T37" t="s">
+        <v>309</v>
+      </c>
+      <c r="U37" t="s">
+        <v>222</v>
+      </c>
+      <c r="V37" t="s">
         <v>219</v>
       </c>
-      <c r="R37" t="s">
-        <v>272</v>
-      </c>
-      <c r="S37" t="s">
-        <v>309</v>
-      </c>
-      <c r="T37" t="s">
+      <c r="W37" t="s">
+        <v>306</v>
+      </c>
+      <c r="X37" t="s">
         <v>310</v>
-      </c>
-      <c r="U37" t="s">
-        <v>223</v>
-      </c>
-      <c r="V37" t="s">
-        <v>220</v>
-      </c>
-      <c r="W37" t="s">
-        <v>307</v>
-      </c>
-      <c r="X37" t="s">
-        <v>311</v>
       </c>
       <c r="AC37" t="s">
         <v>55</v>
       </c>
       <c r="AD37" t="s">
+        <v>226</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF37" t="s">
         <v>227</v>
       </c>
-      <c r="AE37" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF37" t="s">
+      <c r="AG37" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH37" t="s">
         <v>228</v>
       </c>
-      <c r="AG37" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH37" t="s">
+      <c r="AI37" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ37" t="s">
         <v>229</v>
       </c>
-      <c r="AI37" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ37" t="s">
-        <v>230</v>
-      </c>
       <c r="AL37" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AM37" t="s">
         <v>47</v>
       </c>
       <c r="AN37" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="38" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>207</v>
+      <c r="A38" s="3">
+        <v>32511496</v>
       </c>
       <c r="B38" t="s">
         <v>41</v>
@@ -4888,93 +4976,106 @@
       <c r="C38">
         <v>3</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="F38" t="s">
         <v>305</v>
       </c>
-      <c r="F38" t="s">
-        <v>306</v>
-      </c>
       <c r="G38" t="s">
+        <v>246</v>
+      </c>
+      <c r="H38" t="s">
+        <v>209</v>
+      </c>
+      <c r="I38" t="s">
         <v>247</v>
       </c>
-      <c r="H38" t="s">
-        <v>210</v>
-      </c>
-      <c r="I38" t="s">
-        <v>248</v>
-      </c>
       <c r="J38" t="s">
+        <v>312</v>
+      </c>
+      <c r="K38" t="s">
+        <v>271</v>
+      </c>
+      <c r="L38" t="s">
         <v>313</v>
       </c>
-      <c r="K38" t="s">
-        <v>272</v>
-      </c>
-      <c r="L38" t="s">
+      <c r="M38" t="s">
+        <v>251</v>
+      </c>
+      <c r="N38" t="s">
         <v>314</v>
       </c>
-      <c r="M38" t="s">
-        <v>252</v>
-      </c>
-      <c r="N38" t="s">
+      <c r="O38" t="s">
+        <v>253</v>
+      </c>
+      <c r="P38" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>255</v>
+      </c>
+      <c r="R38" t="s">
+        <v>257</v>
+      </c>
+      <c r="S38" t="s">
         <v>315</v>
       </c>
-      <c r="O38" t="s">
+      <c r="T38" t="s">
         <v>254</v>
-      </c>
-      <c r="P38" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>256</v>
-      </c>
-      <c r="R38" t="s">
-        <v>258</v>
-      </c>
-      <c r="S38" t="s">
-        <v>316</v>
-      </c>
-      <c r="T38" t="s">
-        <v>255</v>
       </c>
       <c r="AC38" t="s">
         <v>55</v>
       </c>
       <c r="AD38" t="s">
+        <v>226</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF38" t="s">
         <v>227</v>
       </c>
-      <c r="AE38" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF38" t="s">
+      <c r="AG38" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH38" t="s">
         <v>228</v>
       </c>
-      <c r="AG38" t="s">
-        <v>54</v>
-      </c>
-      <c r="AH38" t="s">
+      <c r="AI38" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ38" t="s">
         <v>229</v>
       </c>
-      <c r="AI38" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ38" t="s">
-        <v>230</v>
-      </c>
       <c r="AL38" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AM38" t="s">
         <v>47</v>
       </c>
       <c r="AN38" t="s">
-        <v>232</v>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="40" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="F40">
+        <f>21+13</f>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO38" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AO38" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="OR"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>